--- a/src/data/Arab States/IFF - Transnational _Crimes.xlsx
+++ b/src/data/Arab States/IFF - Transnational _Crimes.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacksonzhao/Desktop/uninfo_chatbot_z.zhao/src/data/Arab States/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9218692-E979-B941-9021-157F8F22AE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="IFF &amp; Transnational Crimes" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1097,11 +1091,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,21 +1159,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1217,7 +1203,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1251,7 +1237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1286,10 +1271,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1462,16 +1446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1698,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -1834,17 +1816,62 @@
       <c r="AO2">
         <v>106400</v>
       </c>
+      <c r="AP2">
+        <v>31400</v>
+      </c>
+      <c r="AQ2">
+        <v>23574.57</v>
+      </c>
+      <c r="AR2">
+        <v>16457.79</v>
+      </c>
       <c r="AS2" t="s">
         <v>192</v>
       </c>
+      <c r="AT2">
+        <v>31400</v>
+      </c>
+      <c r="AU2">
+        <v>26974.7</v>
+      </c>
+      <c r="AV2">
+        <v>21467.99</v>
+      </c>
       <c r="AW2" t="s">
         <v>192</v>
       </c>
+      <c r="AX2">
+        <v>31400</v>
+      </c>
+      <c r="AY2">
+        <v>22557.45</v>
+      </c>
+      <c r="AZ2">
+        <v>15739.97</v>
+      </c>
       <c r="BA2" t="s">
         <v>192</v>
       </c>
+      <c r="BB2">
+        <v>31400</v>
+      </c>
+      <c r="BC2">
+        <v>27810.28</v>
+      </c>
+      <c r="BD2">
+        <v>22877.62</v>
+      </c>
       <c r="BE2" t="s">
         <v>192</v>
+      </c>
+      <c r="BF2">
+        <v>31400</v>
+      </c>
+      <c r="BG2">
+        <v>25545.61</v>
+      </c>
+      <c r="BH2">
+        <v>20004.57</v>
       </c>
       <c r="BI2" t="s">
         <v>192</v>
@@ -1853,10 +1880,10 @@
         <v>31400</v>
       </c>
       <c r="BK2">
-        <v>31400</v>
+        <v>22091.71</v>
       </c>
       <c r="BL2">
-        <v>31400</v>
+        <v>14959.63</v>
       </c>
       <c r="BM2" t="s">
         <v>192</v>
@@ -1865,25 +1892,52 @@
         <v>111500</v>
       </c>
       <c r="BO2">
-        <v>80000</v>
+        <v>99823.31</v>
       </c>
       <c r="BP2">
+        <v>88160.72</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR2">
         <v>75000</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>192</v>
+      <c r="BS2">
+        <v>48093.94</v>
+      </c>
+      <c r="BT2">
+        <v>39692.65</v>
       </c>
       <c r="BU2" t="s">
         <v>192</v>
       </c>
+      <c r="BV2">
+        <v>75000</v>
+      </c>
+      <c r="BW2">
+        <v>58775.9</v>
+      </c>
+      <c r="BX2">
+        <v>38260.89</v>
+      </c>
       <c r="BY2" t="s">
         <v>192</v>
       </c>
+      <c r="BZ2">
+        <v>75000</v>
+      </c>
+      <c r="CA2">
+        <v>65345.59</v>
+      </c>
+      <c r="CB2">
+        <v>60736.51</v>
+      </c>
       <c r="CC2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:81">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1995,11 +2049,38 @@
       <c r="AO3">
         <v>490909</v>
       </c>
+      <c r="AP3">
+        <v>490909</v>
+      </c>
+      <c r="AQ3">
+        <v>352715.36</v>
+      </c>
+      <c r="AR3">
+        <v>245925.4</v>
+      </c>
       <c r="AS3" t="s">
         <v>192</v>
       </c>
+      <c r="AT3">
+        <v>490909</v>
+      </c>
+      <c r="AU3">
+        <v>371598.35</v>
+      </c>
+      <c r="AV3">
+        <v>287901.79</v>
+      </c>
       <c r="AW3" t="s">
         <v>192</v>
+      </c>
+      <c r="AX3">
+        <v>490909</v>
+      </c>
+      <c r="AY3">
+        <v>392701.96</v>
+      </c>
+      <c r="AZ3">
+        <v>338061.99</v>
       </c>
       <c r="BA3" t="s">
         <v>192</v>
@@ -2008,10 +2089,10 @@
         <v>490909</v>
       </c>
       <c r="BC3">
-        <v>490909</v>
+        <v>386607.02</v>
       </c>
       <c r="BD3">
-        <v>490909</v>
+        <v>333302.08</v>
       </c>
       <c r="BE3" t="s">
         <v>192</v>
@@ -2020,28 +2101,76 @@
         <v>163636</v>
       </c>
       <c r="BG3">
+        <v>110366.78</v>
+      </c>
+      <c r="BH3">
+        <v>90051.64999999999</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ3">
         <v>163636</v>
       </c>
-      <c r="BI3" t="s">
-        <v>192</v>
+      <c r="BK3">
+        <v>108036.8</v>
+      </c>
+      <c r="BL3">
+        <v>65933.98</v>
       </c>
       <c r="BM3" t="s">
         <v>192</v>
       </c>
+      <c r="BN3">
+        <v>163636</v>
+      </c>
+      <c r="BO3">
+        <v>134826.7</v>
+      </c>
+      <c r="BP3">
+        <v>95278.58</v>
+      </c>
       <c r="BQ3" t="s">
         <v>192</v>
       </c>
+      <c r="BR3">
+        <v>163636</v>
+      </c>
+      <c r="BS3">
+        <v>101424.83</v>
+      </c>
+      <c r="BT3">
+        <v>66416.53999999999</v>
+      </c>
       <c r="BU3" t="s">
         <v>192</v>
       </c>
+      <c r="BV3">
+        <v>163636</v>
+      </c>
+      <c r="BW3">
+        <v>135890.69</v>
+      </c>
+      <c r="BX3">
+        <v>119561.37</v>
+      </c>
       <c r="BY3" t="s">
         <v>192</v>
       </c>
+      <c r="BZ3">
+        <v>163636</v>
+      </c>
+      <c r="CA3">
+        <v>146968.92</v>
+      </c>
+      <c r="CB3">
+        <v>106831.57</v>
+      </c>
       <c r="CC3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -2151,13 +2280,40 @@
         <v>668718</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1143250.2</v>
+      </c>
+      <c r="AP4">
+        <v>2006156</v>
+      </c>
+      <c r="AQ4">
+        <v>1228260.63</v>
+      </c>
+      <c r="AR4">
+        <v>849404.75</v>
       </c>
       <c r="AS4" t="s">
         <v>192</v>
       </c>
+      <c r="AT4">
+        <v>2006156</v>
+      </c>
+      <c r="AU4">
+        <v>1781944.74</v>
+      </c>
+      <c r="AV4">
+        <v>1076964.98</v>
+      </c>
       <c r="AW4" t="s">
         <v>192</v>
+      </c>
+      <c r="AX4">
+        <v>2006156</v>
+      </c>
+      <c r="AY4">
+        <v>1380220.74</v>
+      </c>
+      <c r="AZ4">
+        <v>1081324.76</v>
       </c>
       <c r="BA4" t="s">
         <v>192</v>
@@ -2165,6 +2321,12 @@
       <c r="BB4">
         <v>2006156</v>
       </c>
+      <c r="BC4">
+        <v>1311591.15</v>
+      </c>
+      <c r="BD4">
+        <v>1209156.74</v>
+      </c>
       <c r="BE4" t="s">
         <v>192</v>
       </c>
@@ -2172,28 +2334,76 @@
         <v>668718</v>
       </c>
       <c r="BG4">
+        <v>570897.86</v>
+      </c>
+      <c r="BH4">
+        <v>344874.49</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ4">
         <v>668718</v>
       </c>
-      <c r="BI4" t="s">
-        <v>192</v>
+      <c r="BK4">
+        <v>580199.0699999999</v>
+      </c>
+      <c r="BL4">
+        <v>446913.71</v>
       </c>
       <c r="BM4" t="s">
         <v>192</v>
       </c>
+      <c r="BN4">
+        <v>668718</v>
+      </c>
+      <c r="BO4">
+        <v>550201.71</v>
+      </c>
+      <c r="BP4">
+        <v>514894.76</v>
+      </c>
       <c r="BQ4" t="s">
         <v>192</v>
       </c>
+      <c r="BR4">
+        <v>668718</v>
+      </c>
+      <c r="BS4">
+        <v>521098.09</v>
+      </c>
+      <c r="BT4">
+        <v>320991.13</v>
+      </c>
       <c r="BU4" t="s">
         <v>192</v>
       </c>
+      <c r="BV4">
+        <v>668718</v>
+      </c>
+      <c r="BW4">
+        <v>439790.34</v>
+      </c>
+      <c r="BX4">
+        <v>386013.55</v>
+      </c>
       <c r="BY4" t="s">
         <v>192</v>
       </c>
+      <c r="BZ4">
+        <v>668718</v>
+      </c>
+      <c r="CA4">
+        <v>526407.01</v>
+      </c>
+      <c r="CB4">
+        <v>424789.01</v>
+      </c>
       <c r="CC4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -2302,8 +2512,26 @@
       <c r="AO5">
         <v>606000</v>
       </c>
+      <c r="AP5">
+        <v>150000</v>
+      </c>
+      <c r="AQ5">
+        <v>133856.93</v>
+      </c>
+      <c r="AR5">
+        <v>114431.63</v>
+      </c>
       <c r="AS5" t="s">
         <v>192</v>
+      </c>
+      <c r="AT5">
+        <v>150000</v>
+      </c>
+      <c r="AU5">
+        <v>135430.09</v>
+      </c>
+      <c r="AV5">
+        <v>83474.12</v>
       </c>
       <c r="AW5" t="s">
         <v>192</v>
@@ -2312,10 +2540,10 @@
         <v>150000</v>
       </c>
       <c r="AY5">
-        <v>150000</v>
+        <v>107463.37</v>
       </c>
       <c r="AZ5">
-        <v>150000</v>
+        <v>82568.17999999999</v>
       </c>
       <c r="BA5" t="s">
         <v>192</v>
@@ -2324,10 +2552,10 @@
         <v>106000</v>
       </c>
       <c r="BC5">
-        <v>106000</v>
+        <v>73638.78999999999</v>
       </c>
       <c r="BD5">
-        <v>106000</v>
+        <v>50955.47</v>
       </c>
       <c r="BE5" t="s">
         <v>192</v>
@@ -2336,7 +2564,10 @@
         <v>150000</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>109237.01</v>
+      </c>
+      <c r="BH5">
+        <v>97369.77</v>
       </c>
       <c r="BI5" t="s">
         <v>192</v>
@@ -2345,10 +2576,10 @@
         <v>150000</v>
       </c>
       <c r="BK5">
-        <v>150000</v>
+        <v>141383.44</v>
       </c>
       <c r="BL5">
-        <v>150000</v>
+        <v>106567.07</v>
       </c>
       <c r="BM5" t="s">
         <v>192</v>
@@ -2357,25 +2588,52 @@
         <v>200000</v>
       </c>
       <c r="BO5">
+        <v>165386.97</v>
+      </c>
+      <c r="BP5">
+        <v>154593.41</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR5">
         <v>200000</v>
       </c>
-      <c r="BP5">
+      <c r="BS5">
+        <v>133692.89</v>
+      </c>
+      <c r="BT5">
+        <v>86587.58</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV5">
         <v>200000</v>
       </c>
-      <c r="BQ5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>192</v>
+      <c r="BW5">
+        <v>126507.94</v>
+      </c>
+      <c r="BX5">
+        <v>102090.65</v>
       </c>
       <c r="BY5" t="s">
         <v>192</v>
       </c>
+      <c r="BZ5">
+        <v>200000</v>
+      </c>
+      <c r="CA5">
+        <v>170105.9</v>
+      </c>
+      <c r="CB5">
+        <v>141719.32</v>
+      </c>
       <c r="CC5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2493,11 +2751,38 @@
       <c r="AO6">
         <v>48000</v>
       </c>
+      <c r="AP6">
+        <v>20000</v>
+      </c>
+      <c r="AQ6">
+        <v>16352.87</v>
+      </c>
+      <c r="AR6">
+        <v>14975.5</v>
+      </c>
       <c r="AS6" t="s">
         <v>192</v>
       </c>
+      <c r="AT6">
+        <v>20000</v>
+      </c>
+      <c r="AU6">
+        <v>16311.39</v>
+      </c>
+      <c r="AV6">
+        <v>11688.63</v>
+      </c>
       <c r="AW6" t="s">
         <v>192</v>
+      </c>
+      <c r="AX6">
+        <v>20000</v>
+      </c>
+      <c r="AY6">
+        <v>13129.17</v>
+      </c>
+      <c r="AZ6">
+        <v>10221.6</v>
       </c>
       <c r="BA6" t="s">
         <v>192</v>
@@ -2506,10 +2791,10 @@
         <v>20000</v>
       </c>
       <c r="BC6">
-        <v>20000</v>
+        <v>17704.32</v>
       </c>
       <c r="BD6">
-        <v>20000</v>
+        <v>12692.17</v>
       </c>
       <c r="BE6" t="s">
         <v>340</v>
@@ -2518,10 +2803,10 @@
         <v>23000</v>
       </c>
       <c r="BG6">
-        <v>18000</v>
+        <v>18889.3</v>
       </c>
       <c r="BH6">
-        <v>13000</v>
+        <v>15401.29</v>
       </c>
       <c r="BI6" t="s">
         <v>343</v>
@@ -2530,7 +2815,10 @@
         <v>150000</v>
       </c>
       <c r="BK6">
-        <v>60000</v>
+        <v>134275.9</v>
+      </c>
+      <c r="BL6">
+        <v>126062.66</v>
       </c>
       <c r="BM6" t="s">
         <v>192</v>
@@ -2539,25 +2827,52 @@
         <v>15000</v>
       </c>
       <c r="BO6">
+        <v>10599.05</v>
+      </c>
+      <c r="BP6">
+        <v>9497.809999999999</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR6">
         <v>15000</v>
       </c>
-      <c r="BP6">
+      <c r="BS6">
+        <v>9213.02</v>
+      </c>
+      <c r="BT6">
+        <v>8658.85</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV6">
         <v>15000</v>
       </c>
-      <c r="BQ6" t="s">
-        <v>192</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>192</v>
+      <c r="BW6">
+        <v>13191.97</v>
+      </c>
+      <c r="BX6">
+        <v>8589.09</v>
       </c>
       <c r="BY6" t="s">
         <v>192</v>
       </c>
+      <c r="BZ6">
+        <v>15000</v>
+      </c>
+      <c r="CA6">
+        <v>10045.13</v>
+      </c>
+      <c r="CB6">
+        <v>8991.030000000001</v>
+      </c>
       <c r="CC6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -2571,7 +2886,7 @@
         <v>94</v>
       </c>
       <c r="E7">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F7" t="s">
         <v>107</v>
@@ -2666,20 +2981,50 @@
       <c r="AO7">
         <v>815153</v>
       </c>
+      <c r="AP7">
+        <v>590713.9</v>
+      </c>
+      <c r="AQ7">
+        <v>409036.16</v>
+      </c>
+      <c r="AR7">
+        <v>328124.53</v>
+      </c>
       <c r="AS7" t="s">
         <v>192</v>
       </c>
+      <c r="AT7">
+        <v>590713.9</v>
+      </c>
+      <c r="AU7">
+        <v>494653.6</v>
+      </c>
+      <c r="AV7">
+        <v>311602.1</v>
+      </c>
       <c r="AW7" t="s">
         <v>192</v>
       </c>
+      <c r="AX7">
+        <v>590713.9</v>
+      </c>
       <c r="AY7">
-        <v>0</v>
+        <v>364217.33</v>
+      </c>
+      <c r="AZ7">
+        <v>325609.95</v>
       </c>
       <c r="BA7" t="s">
         <v>192</v>
       </c>
+      <c r="BB7">
+        <v>765962.7</v>
+      </c>
       <c r="BC7">
-        <v>0</v>
+        <v>682279.65</v>
+      </c>
+      <c r="BD7">
+        <v>487695.85</v>
       </c>
       <c r="BE7" t="s">
         <v>192</v>
@@ -2688,10 +3033,10 @@
         <v>315153</v>
       </c>
       <c r="BG7">
-        <v>315153</v>
+        <v>214308.59</v>
       </c>
       <c r="BH7">
-        <v>315153</v>
+        <v>175996.87</v>
       </c>
       <c r="BI7" t="s">
         <v>192</v>
@@ -2700,10 +3045,10 @@
         <v>400000</v>
       </c>
       <c r="BK7">
-        <v>352900</v>
+        <v>243144.69</v>
       </c>
       <c r="BL7">
-        <v>300000</v>
+        <v>154849.52</v>
       </c>
       <c r="BM7" t="s">
         <v>192</v>
@@ -2712,25 +3057,52 @@
         <v>200000</v>
       </c>
       <c r="BO7">
+        <v>170292.79</v>
+      </c>
+      <c r="BP7">
+        <v>151002.27</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR7">
         <v>200000</v>
       </c>
-      <c r="BP7">
+      <c r="BS7">
+        <v>151511.64</v>
+      </c>
+      <c r="BT7">
+        <v>136455.56</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV7">
         <v>200000</v>
       </c>
-      <c r="BQ7" t="s">
-        <v>192</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>192</v>
+      <c r="BW7">
+        <v>160006.34</v>
+      </c>
+      <c r="BX7">
+        <v>119797.93</v>
       </c>
       <c r="BY7" t="s">
         <v>192</v>
       </c>
+      <c r="BZ7">
+        <v>200000</v>
+      </c>
+      <c r="CA7">
+        <v>179442.77</v>
+      </c>
+      <c r="CB7">
+        <v>133060.95</v>
+      </c>
       <c r="CC7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -2744,7 +3116,7 @@
         <v>94</v>
       </c>
       <c r="E8">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F8" t="s">
         <v>107</v>
@@ -2839,17 +3211,62 @@
       <c r="AO8">
         <v>334485</v>
       </c>
+      <c r="AP8">
+        <v>334485</v>
+      </c>
+      <c r="AQ8">
+        <v>204358.38</v>
+      </c>
+      <c r="AR8">
+        <v>186416.18</v>
+      </c>
       <c r="AS8" t="s">
         <v>192</v>
       </c>
+      <c r="AT8">
+        <v>334485</v>
+      </c>
+      <c r="AU8">
+        <v>265809.01</v>
+      </c>
+      <c r="AV8">
+        <v>239050.54</v>
+      </c>
       <c r="AW8" t="s">
         <v>192</v>
       </c>
+      <c r="AX8">
+        <v>334485</v>
+      </c>
+      <c r="AY8">
+        <v>274170.96</v>
+      </c>
+      <c r="AZ8">
+        <v>254847.84</v>
+      </c>
       <c r="BA8" t="s">
         <v>192</v>
       </c>
+      <c r="BB8">
+        <v>334485</v>
+      </c>
+      <c r="BC8">
+        <v>265159.9</v>
+      </c>
+      <c r="BD8">
+        <v>180519.73</v>
+      </c>
       <c r="BE8" t="s">
         <v>192</v>
+      </c>
+      <c r="BF8">
+        <v>334485</v>
+      </c>
+      <c r="BG8">
+        <v>292725.39</v>
+      </c>
+      <c r="BH8">
+        <v>216796.74</v>
       </c>
       <c r="BI8" t="s">
         <v>192</v>
@@ -2858,28 +3275,64 @@
         <v>334485</v>
       </c>
       <c r="BK8">
+        <v>241415.32</v>
+      </c>
+      <c r="BL8">
+        <v>218369.97</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN8">
         <v>334485</v>
       </c>
-      <c r="BL8">
+      <c r="BO8">
+        <v>283899.84</v>
+      </c>
+      <c r="BP8">
+        <v>218071.13</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR8">
         <v>334485</v>
       </c>
-      <c r="BM8" t="s">
-        <v>192</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>192</v>
+      <c r="BS8">
+        <v>242628.05</v>
+      </c>
+      <c r="BT8">
+        <v>149193.73</v>
       </c>
       <c r="BU8" t="s">
         <v>192</v>
       </c>
+      <c r="BV8">
+        <v>334485</v>
+      </c>
+      <c r="BW8">
+        <v>271784.58</v>
+      </c>
+      <c r="BX8">
+        <v>203424.67</v>
+      </c>
       <c r="BY8" t="s">
         <v>192</v>
       </c>
+      <c r="BZ8">
+        <v>334485</v>
+      </c>
+      <c r="CA8">
+        <v>216017.15</v>
+      </c>
+      <c r="CB8">
+        <v>175621.59</v>
+      </c>
       <c r="CC8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -2992,7 +3445,7 @@
         <v>192</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>146763.36</v>
       </c>
       <c r="AN9">
         <v>88000</v>
@@ -3000,47 +3453,128 @@
       <c r="AO9">
         <v>44000</v>
       </c>
+      <c r="AP9">
+        <v>44000</v>
+      </c>
+      <c r="AQ9">
+        <v>33295.15</v>
+      </c>
+      <c r="AR9">
+        <v>22049.88</v>
+      </c>
       <c r="AS9" t="s">
         <v>192</v>
       </c>
+      <c r="AT9">
+        <v>44000</v>
+      </c>
       <c r="AU9">
+        <v>34017.42</v>
+      </c>
+      <c r="AV9">
+        <v>21414.69</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX9">
         <v>44000</v>
       </c>
-      <c r="AV9">
+      <c r="AY9">
+        <v>35635.87</v>
+      </c>
+      <c r="AZ9">
+        <v>23653.6</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB9">
         <v>44000</v>
       </c>
-      <c r="AW9" t="s">
-        <v>192</v>
-      </c>
-      <c r="AY9">
+      <c r="BC9">
+        <v>37665.41</v>
+      </c>
+      <c r="BD9">
+        <v>24800.01</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF9">
         <v>44000</v>
       </c>
-      <c r="BA9" t="s">
-        <v>192</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>192</v>
+      <c r="BG9">
+        <v>29204.22</v>
+      </c>
+      <c r="BH9">
+        <v>18312.39</v>
       </c>
       <c r="BI9" t="s">
         <v>192</v>
       </c>
+      <c r="BJ9">
+        <v>44000</v>
+      </c>
+      <c r="BK9">
+        <v>39304.44</v>
+      </c>
+      <c r="BL9">
+        <v>28627.67</v>
+      </c>
       <c r="BM9" t="s">
         <v>192</v>
       </c>
+      <c r="BN9">
+        <v>44000</v>
+      </c>
+      <c r="BO9">
+        <v>36973.25</v>
+      </c>
+      <c r="BP9">
+        <v>34245.79</v>
+      </c>
       <c r="BQ9" t="s">
         <v>192</v>
       </c>
+      <c r="BR9">
+        <v>44000</v>
+      </c>
+      <c r="BS9">
+        <v>37113.07</v>
+      </c>
+      <c r="BT9">
+        <v>22771.24</v>
+      </c>
       <c r="BU9" t="s">
         <v>192</v>
       </c>
+      <c r="BV9">
+        <v>44000</v>
+      </c>
+      <c r="BW9">
+        <v>30264.04</v>
+      </c>
+      <c r="BX9">
+        <v>20846.89</v>
+      </c>
       <c r="BY9" t="s">
         <v>192</v>
       </c>
+      <c r="BZ9">
+        <v>44000</v>
+      </c>
+      <c r="CA9">
+        <v>31901.8</v>
+      </c>
+      <c r="CB9">
+        <v>27419.17</v>
+      </c>
       <c r="CC9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -3152,8 +3686,26 @@
       <c r="AO10">
         <v>750000</v>
       </c>
+      <c r="AP10">
+        <v>250000</v>
+      </c>
+      <c r="AQ10">
+        <v>170940.2</v>
+      </c>
+      <c r="AR10">
+        <v>153313.48</v>
+      </c>
       <c r="AS10" t="s">
         <v>192</v>
+      </c>
+      <c r="AT10">
+        <v>250000</v>
+      </c>
+      <c r="AU10">
+        <v>153270.61</v>
+      </c>
+      <c r="AV10">
+        <v>125286.53</v>
       </c>
       <c r="AW10" t="s">
         <v>192</v>
@@ -3162,10 +3714,10 @@
         <v>250000</v>
       </c>
       <c r="AY10">
-        <v>250000</v>
+        <v>192354.44</v>
       </c>
       <c r="AZ10">
-        <v>250000</v>
+        <v>160162.65</v>
       </c>
       <c r="BA10" t="s">
         <v>192</v>
@@ -3174,34 +3726,88 @@
         <v>500000</v>
       </c>
       <c r="BC10">
+        <v>457400.51</v>
+      </c>
+      <c r="BD10">
+        <v>333937.63</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF10">
         <v>500000</v>
       </c>
-      <c r="BD10">
+      <c r="BG10">
+        <v>388496.74</v>
+      </c>
+      <c r="BH10">
+        <v>326084.94</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ10">
         <v>500000</v>
       </c>
-      <c r="BE10" t="s">
-        <v>192</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>192</v>
+      <c r="BK10">
+        <v>334983.21</v>
+      </c>
+      <c r="BL10">
+        <v>295057.33</v>
       </c>
       <c r="BM10" t="s">
         <v>192</v>
       </c>
+      <c r="BN10">
+        <v>500000</v>
+      </c>
+      <c r="BO10">
+        <v>373069.71</v>
+      </c>
+      <c r="BP10">
+        <v>348115.4</v>
+      </c>
       <c r="BQ10" t="s">
         <v>192</v>
       </c>
+      <c r="BR10">
+        <v>500000</v>
+      </c>
+      <c r="BS10">
+        <v>396736.89</v>
+      </c>
+      <c r="BT10">
+        <v>257358.94</v>
+      </c>
       <c r="BU10" t="s">
         <v>192</v>
       </c>
+      <c r="BV10">
+        <v>500000</v>
+      </c>
+      <c r="BW10">
+        <v>451322.53</v>
+      </c>
+      <c r="BX10">
+        <v>295507.49</v>
+      </c>
       <c r="BY10" t="s">
         <v>192</v>
       </c>
+      <c r="BZ10">
+        <v>500000</v>
+      </c>
+      <c r="CA10">
+        <v>355239.99</v>
+      </c>
+      <c r="CB10">
+        <v>245843.75</v>
+      </c>
       <c r="CC10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -3310,8 +3916,26 @@
       <c r="AO11">
         <v>1787381</v>
       </c>
+      <c r="AP11">
+        <v>1600000</v>
+      </c>
+      <c r="AQ11">
+        <v>1020931.45</v>
+      </c>
+      <c r="AR11">
+        <v>943157.87</v>
+      </c>
       <c r="AS11" t="s">
         <v>192</v>
+      </c>
+      <c r="AT11">
+        <v>1600000</v>
+      </c>
+      <c r="AU11">
+        <v>998937.12</v>
+      </c>
+      <c r="AV11">
+        <v>624286.86</v>
       </c>
       <c r="AW11" t="s">
         <v>192</v>
@@ -3320,10 +3944,10 @@
         <v>1600000</v>
       </c>
       <c r="AY11">
-        <v>400000</v>
+        <v>1169565.07</v>
       </c>
       <c r="AZ11">
-        <v>400000</v>
+        <v>927964.96</v>
       </c>
       <c r="BA11" t="s">
         <v>192</v>
@@ -3332,10 +3956,10 @@
         <v>2000000</v>
       </c>
       <c r="BC11">
-        <v>13000</v>
+        <v>1530102.14</v>
       </c>
       <c r="BD11">
-        <v>13000</v>
+        <v>930925.87</v>
       </c>
       <c r="BE11" t="s">
         <v>192</v>
@@ -3344,10 +3968,10 @@
         <v>1600000</v>
       </c>
       <c r="BG11">
-        <v>300000</v>
+        <v>1051077.99</v>
       </c>
       <c r="BH11">
-        <v>300000</v>
+        <v>785686.34</v>
       </c>
       <c r="BI11" t="s">
         <v>192</v>
@@ -3356,10 +3980,10 @@
         <v>887381</v>
       </c>
       <c r="BK11">
-        <v>887381</v>
+        <v>717820.33</v>
       </c>
       <c r="BL11">
-        <v>887381</v>
+        <v>438631.41</v>
       </c>
       <c r="BM11" t="s">
         <v>192</v>
@@ -3368,25 +3992,52 @@
         <v>187000</v>
       </c>
       <c r="BO11">
+        <v>115433.23</v>
+      </c>
+      <c r="BP11">
+        <v>69832.53999999999</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR11">
         <v>187000</v>
       </c>
-      <c r="BP11">
+      <c r="BS11">
+        <v>156104.97</v>
+      </c>
+      <c r="BT11">
+        <v>142437.41</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV11">
         <v>187000</v>
       </c>
-      <c r="BQ11" t="s">
-        <v>192</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>192</v>
+      <c r="BW11">
+        <v>120257.83</v>
+      </c>
+      <c r="BX11">
+        <v>76240.78</v>
       </c>
       <c r="BY11" t="s">
         <v>192</v>
       </c>
+      <c r="BZ11">
+        <v>187000</v>
+      </c>
+      <c r="CA11">
+        <v>168991.64</v>
+      </c>
+      <c r="CB11">
+        <v>137818.97</v>
+      </c>
       <c r="CC11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -3499,13 +4150,13 @@
         <v>192</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1356583.75</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>118958.75</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>61802.5</v>
       </c>
       <c r="AS12" t="s">
         <v>192</v>
@@ -3538,7 +4189,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -3650,8 +4301,26 @@
       <c r="AO13">
         <v>5237072</v>
       </c>
+      <c r="AP13">
+        <v>8950</v>
+      </c>
+      <c r="AQ13">
+        <v>6539.87</v>
+      </c>
+      <c r="AR13">
+        <v>4498.64</v>
+      </c>
       <c r="AS13" t="s">
         <v>192</v>
+      </c>
+      <c r="AT13">
+        <v>8950</v>
+      </c>
+      <c r="AU13">
+        <v>6702.69</v>
+      </c>
+      <c r="AV13">
+        <v>4513.11</v>
       </c>
       <c r="AW13" t="s">
         <v>192</v>
@@ -3660,10 +4329,10 @@
         <v>8950</v>
       </c>
       <c r="AY13">
-        <v>8950</v>
+        <v>5879.62</v>
       </c>
       <c r="AZ13">
-        <v>8950</v>
+        <v>5126.99</v>
       </c>
       <c r="BA13" t="s">
         <v>192</v>
@@ -3672,10 +4341,10 @@
         <v>784777</v>
       </c>
       <c r="BC13">
-        <v>784777</v>
+        <v>738888.33</v>
       </c>
       <c r="BD13">
-        <v>784777</v>
+        <v>653629.01</v>
       </c>
       <c r="BE13" t="s">
         <v>192</v>
@@ -3684,10 +4353,10 @@
         <v>1710946</v>
       </c>
       <c r="BG13">
-        <v>1710945</v>
+        <v>1367088.84</v>
       </c>
       <c r="BH13">
-        <v>1710945</v>
+        <v>894828.61</v>
       </c>
       <c r="BI13" t="s">
         <v>192</v>
@@ -3696,28 +4365,64 @@
         <v>2732400</v>
       </c>
       <c r="BK13">
+        <v>2408543.87</v>
+      </c>
+      <c r="BL13">
+        <v>2251835.1</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN13">
         <v>2732400</v>
       </c>
-      <c r="BL13">
+      <c r="BO13">
+        <v>2111683.42</v>
+      </c>
+      <c r="BP13">
+        <v>1894136.81</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR13">
         <v>2732400</v>
       </c>
-      <c r="BM13" t="s">
-        <v>192</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>192</v>
+      <c r="BS13">
+        <v>2553475.16</v>
+      </c>
+      <c r="BT13">
+        <v>2003767.43</v>
       </c>
       <c r="BU13" t="s">
         <v>192</v>
       </c>
+      <c r="BV13">
+        <v>2732400</v>
+      </c>
+      <c r="BW13">
+        <v>1710357.17</v>
+      </c>
+      <c r="BX13">
+        <v>1034889.69</v>
+      </c>
       <c r="BY13" t="s">
         <v>192</v>
       </c>
+      <c r="BZ13">
+        <v>2732400</v>
+      </c>
+      <c r="CA13">
+        <v>1721677.25</v>
+      </c>
+      <c r="CB13">
+        <v>1448407.47</v>
+      </c>
       <c r="CC13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -3829,8 +4534,26 @@
       <c r="AO14">
         <v>1062000</v>
       </c>
+      <c r="AP14">
+        <v>331479</v>
+      </c>
+      <c r="AQ14">
+        <v>237388.87</v>
+      </c>
+      <c r="AR14">
+        <v>176414.14</v>
+      </c>
       <c r="AS14" t="s">
         <v>192</v>
+      </c>
+      <c r="AT14">
+        <v>331479</v>
+      </c>
+      <c r="AU14">
+        <v>222577.73</v>
+      </c>
+      <c r="AV14">
+        <v>171015.75</v>
       </c>
       <c r="AW14" t="s">
         <v>192</v>
@@ -3839,7 +4562,10 @@
         <v>331479</v>
       </c>
       <c r="AY14">
-        <v>331479</v>
+        <v>304408.93</v>
+      </c>
+      <c r="AZ14">
+        <v>216193.29</v>
       </c>
       <c r="BA14" t="s">
         <v>192</v>
@@ -3848,7 +4574,10 @@
         <v>702140</v>
       </c>
       <c r="BC14">
-        <v>702140</v>
+        <v>531135.99</v>
+      </c>
+      <c r="BD14">
+        <v>489755.97</v>
       </c>
       <c r="BE14" t="s">
         <v>192</v>
@@ -3857,7 +4586,10 @@
         <v>939852</v>
       </c>
       <c r="BG14">
-        <v>939852</v>
+        <v>652691.01</v>
+      </c>
+      <c r="BH14">
+        <v>530601.6899999999</v>
       </c>
       <c r="BI14" t="s">
         <v>192</v>
@@ -3866,10 +4598,10 @@
         <v>1000000</v>
       </c>
       <c r="BK14">
-        <v>680000</v>
+        <v>614730.45</v>
       </c>
       <c r="BL14">
-        <v>680000</v>
+        <v>430345.59</v>
       </c>
       <c r="BM14" t="s">
         <v>192</v>
@@ -3878,25 +4610,52 @@
         <v>382000</v>
       </c>
       <c r="BO14">
+        <v>262335.59</v>
+      </c>
+      <c r="BP14">
+        <v>221069.77</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR14">
         <v>382000</v>
       </c>
-      <c r="BP14">
+      <c r="BS14">
+        <v>300422.49</v>
+      </c>
+      <c r="BT14">
+        <v>184278.45</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV14">
         <v>382000</v>
       </c>
-      <c r="BQ14" t="s">
-        <v>192</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>192</v>
+      <c r="BW14">
+        <v>250646.26</v>
+      </c>
+      <c r="BX14">
+        <v>167295</v>
       </c>
       <c r="BY14" t="s">
         <v>192</v>
       </c>
+      <c r="BZ14">
+        <v>382000</v>
+      </c>
+      <c r="CA14">
+        <v>329840.48</v>
+      </c>
+      <c r="CB14">
+        <v>225057.17</v>
+      </c>
       <c r="CC14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -4017,20 +4776,74 @@
       <c r="AO15">
         <v>329502</v>
       </c>
+      <c r="AP15">
+        <v>685160</v>
+      </c>
+      <c r="AQ15">
+        <v>542536.8199999999</v>
+      </c>
+      <c r="AR15">
+        <v>436949.73</v>
+      </c>
       <c r="AS15" t="s">
         <v>192</v>
       </c>
+      <c r="AT15">
+        <v>685160</v>
+      </c>
+      <c r="AU15">
+        <v>478433.94</v>
+      </c>
+      <c r="AV15">
+        <v>323776.95</v>
+      </c>
       <c r="AW15" t="s">
         <v>192</v>
       </c>
+      <c r="AX15">
+        <v>685160</v>
+      </c>
+      <c r="AY15">
+        <v>601341.63</v>
+      </c>
+      <c r="AZ15">
+        <v>380156.71</v>
+      </c>
       <c r="BA15" t="s">
         <v>192</v>
       </c>
+      <c r="BB15">
+        <v>685160</v>
+      </c>
+      <c r="BC15">
+        <v>634369.6899999999</v>
+      </c>
+      <c r="BD15">
+        <v>498975.05</v>
+      </c>
       <c r="BE15" t="s">
         <v>192</v>
       </c>
+      <c r="BF15">
+        <v>685160</v>
+      </c>
+      <c r="BG15">
+        <v>584961.09</v>
+      </c>
+      <c r="BH15">
+        <v>481187.64</v>
+      </c>
       <c r="BI15" t="s">
         <v>192</v>
+      </c>
+      <c r="BJ15">
+        <v>685160</v>
+      </c>
+      <c r="BK15">
+        <v>607608.62</v>
+      </c>
+      <c r="BL15">
+        <v>488898.54</v>
       </c>
       <c r="BM15" t="s">
         <v>192</v>
@@ -4039,25 +4852,52 @@
         <v>685160</v>
       </c>
       <c r="BO15">
-        <v>355658</v>
+        <v>542247.09</v>
       </c>
       <c r="BP15">
+        <v>380537.23</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR15">
         <v>329502</v>
       </c>
-      <c r="BQ15" t="s">
-        <v>192</v>
+      <c r="BS15">
+        <v>286487.71</v>
+      </c>
+      <c r="BT15">
+        <v>267772.31</v>
       </c>
       <c r="BU15" t="s">
         <v>192</v>
       </c>
+      <c r="BV15">
+        <v>329502</v>
+      </c>
+      <c r="BW15">
+        <v>228807.32</v>
+      </c>
+      <c r="BX15">
+        <v>147217.79</v>
+      </c>
       <c r="BY15" t="s">
         <v>192</v>
       </c>
+      <c r="BZ15">
+        <v>329502</v>
+      </c>
+      <c r="CA15">
+        <v>309296.85</v>
+      </c>
+      <c r="CB15">
+        <v>225941.47</v>
+      </c>
       <c r="CC15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -4178,17 +5018,62 @@
       <c r="AO16">
         <v>121750</v>
       </c>
+      <c r="AP16">
+        <v>125000</v>
+      </c>
+      <c r="AQ16">
+        <v>94592.09</v>
+      </c>
+      <c r="AR16">
+        <v>71533.13</v>
+      </c>
       <c r="AS16" t="s">
         <v>192</v>
       </c>
+      <c r="AT16">
+        <v>125000</v>
+      </c>
+      <c r="AU16">
+        <v>97505.63</v>
+      </c>
+      <c r="AV16">
+        <v>68430.36</v>
+      </c>
       <c r="AW16" t="s">
         <v>192</v>
       </c>
+      <c r="AX16">
+        <v>125000</v>
+      </c>
+      <c r="AY16">
+        <v>85793.32000000001</v>
+      </c>
+      <c r="AZ16">
+        <v>65344.87</v>
+      </c>
       <c r="BA16" t="s">
         <v>192</v>
       </c>
+      <c r="BB16">
+        <v>125000</v>
+      </c>
+      <c r="BC16">
+        <v>85230.97</v>
+      </c>
+      <c r="BD16">
+        <v>65669.49000000001</v>
+      </c>
       <c r="BE16" t="s">
         <v>192</v>
+      </c>
+      <c r="BF16">
+        <v>125000</v>
+      </c>
+      <c r="BG16">
+        <v>106221.5</v>
+      </c>
+      <c r="BH16">
+        <v>85351.8</v>
       </c>
       <c r="BI16" t="s">
         <v>192</v>
@@ -4197,10 +5082,10 @@
         <v>125000</v>
       </c>
       <c r="BK16">
-        <v>125000</v>
+        <v>118284.33</v>
       </c>
       <c r="BL16">
-        <v>105200</v>
+        <v>108871.98</v>
       </c>
       <c r="BM16" t="s">
         <v>346</v>
@@ -4209,10 +5094,10 @@
         <v>20000</v>
       </c>
       <c r="BO16">
-        <v>20000</v>
+        <v>14000.55</v>
       </c>
       <c r="BP16">
-        <v>16550</v>
+        <v>8759.4</v>
       </c>
       <c r="BQ16" t="s">
         <v>350</v>
@@ -4221,19 +5106,40 @@
         <v>27500</v>
       </c>
       <c r="BS16">
+        <v>20718</v>
+      </c>
+      <c r="BT16">
+        <v>18186.1</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV16">
         <v>27500</v>
       </c>
-      <c r="BU16" t="s">
-        <v>192</v>
+      <c r="BW16">
+        <v>17406.25</v>
+      </c>
+      <c r="BX16">
+        <v>13742.53</v>
       </c>
       <c r="BY16" t="s">
         <v>192</v>
       </c>
+      <c r="BZ16">
+        <v>27500</v>
+      </c>
+      <c r="CA16">
+        <v>25553.02</v>
+      </c>
+      <c r="CB16">
+        <v>17957.79</v>
+      </c>
       <c r="CC16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:81">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -4354,11 +5260,38 @@
       <c r="AO17">
         <v>9530</v>
       </c>
+      <c r="AP17">
+        <v>7530</v>
+      </c>
+      <c r="AQ17">
+        <v>5269.91</v>
+      </c>
+      <c r="AR17">
+        <v>3869.87</v>
+      </c>
       <c r="AS17" t="s">
         <v>192</v>
       </c>
+      <c r="AT17">
+        <v>7530</v>
+      </c>
+      <c r="AU17">
+        <v>4729.42</v>
+      </c>
+      <c r="AV17">
+        <v>3967.79</v>
+      </c>
       <c r="AW17" t="s">
         <v>192</v>
+      </c>
+      <c r="AX17">
+        <v>7530</v>
+      </c>
+      <c r="AY17">
+        <v>5536.38</v>
+      </c>
+      <c r="AZ17">
+        <v>4522.5</v>
       </c>
       <c r="BA17" t="s">
         <v>192</v>
@@ -4367,10 +5300,10 @@
         <v>7530</v>
       </c>
       <c r="BC17">
-        <v>7530</v>
+        <v>5374.01</v>
       </c>
       <c r="BD17">
-        <v>7530</v>
+        <v>4067.02</v>
       </c>
       <c r="BE17" t="s">
         <v>341</v>
@@ -4379,7 +5312,10 @@
         <v>56170</v>
       </c>
       <c r="BG17">
-        <v>56170</v>
+        <v>50134.06</v>
+      </c>
+      <c r="BH17">
+        <v>44587.11</v>
       </c>
       <c r="BI17" t="s">
         <v>344</v>
@@ -4388,7 +5324,10 @@
         <v>2000000</v>
       </c>
       <c r="BK17">
-        <v>20000</v>
+        <v>1324790.08</v>
+      </c>
+      <c r="BL17">
+        <v>1107405.13</v>
       </c>
       <c r="BM17" t="s">
         <v>192</v>
@@ -4397,25 +5336,52 @@
         <v>2000000</v>
       </c>
       <c r="BO17">
-        <v>10000</v>
+        <v>1575349.82</v>
       </c>
       <c r="BP17">
+        <v>1193405.18</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR17">
         <v>2000</v>
       </c>
-      <c r="BQ17" t="s">
-        <v>192</v>
+      <c r="BS17">
+        <v>1758.22</v>
+      </c>
+      <c r="BT17">
+        <v>1538.43</v>
       </c>
       <c r="BU17" t="s">
         <v>192</v>
       </c>
+      <c r="BV17">
+        <v>2000</v>
+      </c>
+      <c r="BW17">
+        <v>1703.08</v>
+      </c>
+      <c r="BX17">
+        <v>1397.49</v>
+      </c>
       <c r="BY17" t="s">
         <v>192</v>
       </c>
+      <c r="BZ17">
+        <v>2000</v>
+      </c>
+      <c r="CA17">
+        <v>1626.44</v>
+      </c>
+      <c r="CB17">
+        <v>1270.49</v>
+      </c>
       <c r="CC17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:81">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -4530,17 +5496,62 @@
       <c r="AO18">
         <v>174720</v>
       </c>
+      <c r="AP18">
+        <v>174720</v>
+      </c>
+      <c r="AQ18">
+        <v>133398.44</v>
+      </c>
+      <c r="AR18">
+        <v>107940.12</v>
+      </c>
       <c r="AS18" t="s">
         <v>192</v>
       </c>
+      <c r="AT18">
+        <v>174720</v>
+      </c>
+      <c r="AU18">
+        <v>140643.1</v>
+      </c>
+      <c r="AV18">
+        <v>94827.34</v>
+      </c>
       <c r="AW18" t="s">
         <v>192</v>
       </c>
+      <c r="AX18">
+        <v>174720</v>
+      </c>
+      <c r="AY18">
+        <v>139259.66</v>
+      </c>
+      <c r="AZ18">
+        <v>87809.50999999999</v>
+      </c>
       <c r="BA18" t="s">
         <v>192</v>
       </c>
+      <c r="BB18">
+        <v>174720</v>
+      </c>
+      <c r="BC18">
+        <v>160565.45</v>
+      </c>
+      <c r="BD18">
+        <v>112177.78</v>
+      </c>
       <c r="BE18" t="s">
         <v>192</v>
+      </c>
+      <c r="BF18">
+        <v>174720</v>
+      </c>
+      <c r="BG18">
+        <v>153524.13</v>
+      </c>
+      <c r="BH18">
+        <v>123035.83</v>
       </c>
       <c r="BI18" t="s">
         <v>192</v>
@@ -4549,31 +5560,64 @@
         <v>174720</v>
       </c>
       <c r="BK18">
-        <v>174720</v>
+        <v>144781.81</v>
       </c>
       <c r="BL18">
-        <v>174720</v>
+        <v>92486.63</v>
       </c>
       <c r="BM18" t="s">
         <v>347</v>
       </c>
+      <c r="BN18">
+        <v>87360</v>
+      </c>
       <c r="BO18">
-        <v>0</v>
+        <v>61265.4</v>
+      </c>
+      <c r="BP18">
+        <v>57568.11</v>
       </c>
       <c r="BQ18" t="s">
         <v>192</v>
       </c>
+      <c r="BR18">
+        <v>9000</v>
+      </c>
+      <c r="BS18">
+        <v>7789.85</v>
+      </c>
+      <c r="BT18">
+        <v>5260.36</v>
+      </c>
       <c r="BU18" t="s">
         <v>192</v>
       </c>
+      <c r="BV18">
+        <v>9000</v>
+      </c>
+      <c r="BW18">
+        <v>7153.63</v>
+      </c>
+      <c r="BX18">
+        <v>5395.25</v>
+      </c>
       <c r="BY18" t="s">
         <v>192</v>
       </c>
+      <c r="BZ18">
+        <v>9000</v>
+      </c>
+      <c r="CA18">
+        <v>8525.299999999999</v>
+      </c>
+      <c r="CB18">
+        <v>6333.65</v>
+      </c>
       <c r="CC18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -4691,11 +5735,38 @@
       <c r="AO19">
         <v>14960</v>
       </c>
+      <c r="AP19">
+        <v>14960</v>
+      </c>
+      <c r="AQ19">
+        <v>9660.34</v>
+      </c>
+      <c r="AR19">
+        <v>8379.290000000001</v>
+      </c>
       <c r="AS19" t="s">
         <v>192</v>
       </c>
+      <c r="AT19">
+        <v>14960</v>
+      </c>
+      <c r="AU19">
+        <v>12024.64</v>
+      </c>
+      <c r="AV19">
+        <v>11236.5</v>
+      </c>
       <c r="AW19" t="s">
         <v>192</v>
+      </c>
+      <c r="AX19">
+        <v>14960</v>
+      </c>
+      <c r="AY19">
+        <v>9665.549999999999</v>
+      </c>
+      <c r="AZ19">
+        <v>5974.27</v>
       </c>
       <c r="BA19" t="s">
         <v>192</v>
@@ -4704,10 +5775,10 @@
         <v>14960</v>
       </c>
       <c r="BC19">
-        <v>14960</v>
+        <v>13368.83</v>
       </c>
       <c r="BD19">
-        <v>14960</v>
+        <v>12397.66</v>
       </c>
       <c r="BE19" t="s">
         <v>342</v>
@@ -4716,7 +5787,10 @@
         <v>14955</v>
       </c>
       <c r="BG19">
-        <v>14955</v>
+        <v>14176.53</v>
+      </c>
+      <c r="BH19">
+        <v>8699.98</v>
       </c>
       <c r="BI19" t="s">
         <v>345</v>
@@ -4725,7 +5799,10 @@
         <v>450000</v>
       </c>
       <c r="BK19">
-        <v>54500</v>
+        <v>284099.23</v>
+      </c>
+      <c r="BL19">
+        <v>227082.06</v>
       </c>
       <c r="BM19" t="s">
         <v>192</v>
@@ -4734,22 +5811,52 @@
         <v>500000</v>
       </c>
       <c r="BO19">
+        <v>443233.08</v>
+      </c>
+      <c r="BP19">
+        <v>347376.3</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR19">
         <v>10000</v>
       </c>
-      <c r="BQ19" t="s">
-        <v>192</v>
+      <c r="BS19">
+        <v>8629.99</v>
+      </c>
+      <c r="BT19">
+        <v>5614.14</v>
       </c>
       <c r="BU19" t="s">
         <v>192</v>
       </c>
+      <c r="BV19">
+        <v>10000</v>
+      </c>
+      <c r="BW19">
+        <v>8218.93</v>
+      </c>
+      <c r="BX19">
+        <v>7525.69</v>
+      </c>
       <c r="BY19" t="s">
         <v>192</v>
       </c>
+      <c r="BZ19">
+        <v>10000</v>
+      </c>
+      <c r="CA19">
+        <v>6627.52</v>
+      </c>
+      <c r="CB19">
+        <v>5909.25</v>
+      </c>
       <c r="CC19" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -4870,17 +5977,62 @@
       <c r="AO20">
         <v>1174156</v>
       </c>
+      <c r="AP20">
+        <v>1248650</v>
+      </c>
+      <c r="AQ20">
+        <v>1046618.34</v>
+      </c>
+      <c r="AR20">
+        <v>737414.5699999999</v>
+      </c>
       <c r="AS20" t="s">
         <v>192</v>
       </c>
+      <c r="AT20">
+        <v>1248650</v>
+      </c>
+      <c r="AU20">
+        <v>1167197.43</v>
+      </c>
+      <c r="AV20">
+        <v>917627.09</v>
+      </c>
       <c r="AW20" t="s">
         <v>192</v>
       </c>
+      <c r="AX20">
+        <v>1248650</v>
+      </c>
+      <c r="AY20">
+        <v>1165505.33</v>
+      </c>
+      <c r="AZ20">
+        <v>962556.45</v>
+      </c>
       <c r="BA20" t="s">
         <v>192</v>
       </c>
+      <c r="BB20">
+        <v>1248650</v>
+      </c>
+      <c r="BC20">
+        <v>1101020.21</v>
+      </c>
+      <c r="BD20">
+        <v>863792.9300000001</v>
+      </c>
       <c r="BE20" t="s">
         <v>192</v>
+      </c>
+      <c r="BF20">
+        <v>1248650</v>
+      </c>
+      <c r="BG20">
+        <v>834695.79</v>
+      </c>
+      <c r="BH20">
+        <v>737125.74</v>
       </c>
       <c r="BI20" t="s">
         <v>192</v>
@@ -4889,10 +6041,10 @@
         <v>1248650</v>
       </c>
       <c r="BK20">
-        <v>936490</v>
+        <v>925300.34</v>
       </c>
       <c r="BL20">
-        <v>670820</v>
+        <v>731825.66</v>
       </c>
       <c r="BM20" t="s">
         <v>348</v>
@@ -4901,10 +6053,10 @@
         <v>1248650</v>
       </c>
       <c r="BO20">
-        <v>624320</v>
+        <v>977189.1</v>
       </c>
       <c r="BP20">
-        <v>503336</v>
+        <v>652531.79</v>
       </c>
       <c r="BQ20" t="s">
         <v>351</v>
@@ -4913,19 +6065,40 @@
         <v>1248650</v>
       </c>
       <c r="BS20">
+        <v>1060573.42</v>
+      </c>
+      <c r="BT20">
+        <v>637657.65</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV20">
         <v>936490</v>
       </c>
-      <c r="BU20" t="s">
-        <v>192</v>
+      <c r="BW20">
+        <v>767543.88</v>
+      </c>
+      <c r="BX20">
+        <v>476876.07</v>
       </c>
       <c r="BY20" t="s">
         <v>192</v>
       </c>
+      <c r="BZ20">
+        <v>936490</v>
+      </c>
+      <c r="CA20">
+        <v>575674.88</v>
+      </c>
+      <c r="CB20">
+        <v>523711.36</v>
+      </c>
       <c r="CC20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:81">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -5044,22 +6217,76 @@
         <v>412081</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>200000</v>
+      </c>
+      <c r="AP21">
+        <v>412081</v>
+      </c>
+      <c r="AQ21">
+        <v>313499.02</v>
+      </c>
+      <c r="AR21">
+        <v>292000.87</v>
       </c>
       <c r="AS21" t="s">
         <v>192</v>
       </c>
+      <c r="AT21">
+        <v>412081</v>
+      </c>
+      <c r="AU21">
+        <v>261387.26</v>
+      </c>
+      <c r="AV21">
+        <v>198749.71</v>
+      </c>
       <c r="AW21" t="s">
         <v>192</v>
       </c>
+      <c r="AX21">
+        <v>412081</v>
+      </c>
+      <c r="AY21">
+        <v>370648.13</v>
+      </c>
+      <c r="AZ21">
+        <v>292605.33</v>
+      </c>
       <c r="BA21" t="s">
         <v>192</v>
       </c>
+      <c r="BB21">
+        <v>412081</v>
+      </c>
+      <c r="BC21">
+        <v>328590.12</v>
+      </c>
+      <c r="BD21">
+        <v>291417.46</v>
+      </c>
       <c r="BE21" t="s">
         <v>192</v>
       </c>
+      <c r="BF21">
+        <v>412081</v>
+      </c>
+      <c r="BG21">
+        <v>366423.41</v>
+      </c>
+      <c r="BH21">
+        <v>324857.62</v>
+      </c>
       <c r="BI21" t="s">
         <v>192</v>
+      </c>
+      <c r="BJ21">
+        <v>412081</v>
+      </c>
+      <c r="BK21">
+        <v>281694.43</v>
+      </c>
+      <c r="BL21">
+        <v>223899.76</v>
       </c>
       <c r="BM21" t="s">
         <v>192</v>
@@ -5068,22 +6295,52 @@
         <v>412081</v>
       </c>
       <c r="BO21">
+        <v>340871.15</v>
+      </c>
+      <c r="BP21">
+        <v>318296.08</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR21">
         <v>412081</v>
       </c>
-      <c r="BQ21" t="s">
-        <v>192</v>
+      <c r="BS21">
+        <v>379769.22</v>
+      </c>
+      <c r="BT21">
+        <v>337837.41</v>
       </c>
       <c r="BU21" t="s">
         <v>192</v>
       </c>
+      <c r="BV21">
+        <v>412081</v>
+      </c>
+      <c r="BW21">
+        <v>329519.18</v>
+      </c>
+      <c r="BX21">
+        <v>258170.06</v>
+      </c>
       <c r="BY21" t="s">
         <v>192</v>
       </c>
+      <c r="BZ21">
+        <v>412081</v>
+      </c>
+      <c r="CA21">
+        <v>263198.74</v>
+      </c>
+      <c r="CB21">
+        <v>210612.78</v>
+      </c>
       <c r="CC21" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -5202,22 +6459,76 @@
         <v>412081</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>200000</v>
+      </c>
+      <c r="AP22">
+        <v>412081</v>
+      </c>
+      <c r="AQ22">
+        <v>250202.02</v>
+      </c>
+      <c r="AR22">
+        <v>221171.85</v>
       </c>
       <c r="AS22" t="s">
         <v>192</v>
       </c>
+      <c r="AT22">
+        <v>412081</v>
+      </c>
+      <c r="AU22">
+        <v>251140.37</v>
+      </c>
+      <c r="AV22">
+        <v>187180.05</v>
+      </c>
       <c r="AW22" t="s">
         <v>192</v>
       </c>
+      <c r="AX22">
+        <v>412081</v>
+      </c>
+      <c r="AY22">
+        <v>275205.56</v>
+      </c>
+      <c r="AZ22">
+        <v>225478.75</v>
+      </c>
       <c r="BA22" t="s">
         <v>192</v>
       </c>
+      <c r="BB22">
+        <v>412081</v>
+      </c>
+      <c r="BC22">
+        <v>253666.88</v>
+      </c>
+      <c r="BD22">
+        <v>217538.5</v>
+      </c>
       <c r="BE22" t="s">
         <v>192</v>
       </c>
+      <c r="BF22">
+        <v>412081</v>
+      </c>
+      <c r="BG22">
+        <v>373118.69</v>
+      </c>
+      <c r="BH22">
+        <v>279060.24</v>
+      </c>
       <c r="BI22" t="s">
         <v>192</v>
+      </c>
+      <c r="BJ22">
+        <v>412081</v>
+      </c>
+      <c r="BK22">
+        <v>302545.07</v>
+      </c>
+      <c r="BL22">
+        <v>275509.08</v>
       </c>
       <c r="BM22" t="s">
         <v>192</v>
@@ -5226,22 +6537,52 @@
         <v>412081</v>
       </c>
       <c r="BO22">
+        <v>376807.41</v>
+      </c>
+      <c r="BP22">
+        <v>237264.27</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR22">
         <v>412081</v>
       </c>
-      <c r="BQ22" t="s">
-        <v>192</v>
+      <c r="BS22">
+        <v>345751.29</v>
+      </c>
+      <c r="BT22">
+        <v>218882.6</v>
       </c>
       <c r="BU22" t="s">
         <v>192</v>
       </c>
+      <c r="BV22">
+        <v>412081</v>
+      </c>
+      <c r="BW22">
+        <v>312443.17</v>
+      </c>
+      <c r="BX22">
+        <v>249666.58</v>
+      </c>
       <c r="BY22" t="s">
         <v>192</v>
       </c>
+      <c r="BZ22">
+        <v>412081</v>
+      </c>
+      <c r="CA22">
+        <v>350143.31</v>
+      </c>
+      <c r="CB22">
+        <v>251302.46</v>
+      </c>
       <c r="CC22" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -5360,22 +6701,76 @@
         <v>50000</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>200000</v>
+      </c>
+      <c r="AP23">
+        <v>50000</v>
+      </c>
+      <c r="AQ23">
+        <v>38955.18</v>
+      </c>
+      <c r="AR23">
+        <v>31810.19</v>
       </c>
       <c r="AS23" t="s">
         <v>192</v>
       </c>
+      <c r="AT23">
+        <v>50000</v>
+      </c>
+      <c r="AU23">
+        <v>45914.83</v>
+      </c>
+      <c r="AV23">
+        <v>35060.81</v>
+      </c>
       <c r="AW23" t="s">
         <v>192</v>
       </c>
+      <c r="AX23">
+        <v>50000</v>
+      </c>
+      <c r="AY23">
+        <v>38843.43</v>
+      </c>
+      <c r="AZ23">
+        <v>28855.51</v>
+      </c>
       <c r="BA23" t="s">
         <v>192</v>
       </c>
+      <c r="BB23">
+        <v>50000</v>
+      </c>
+      <c r="BC23">
+        <v>39255.18</v>
+      </c>
+      <c r="BD23">
+        <v>29009.5</v>
+      </c>
       <c r="BE23" t="s">
         <v>192</v>
       </c>
+      <c r="BF23">
+        <v>50000</v>
+      </c>
+      <c r="BG23">
+        <v>46307.09</v>
+      </c>
+      <c r="BH23">
+        <v>31174.38</v>
+      </c>
       <c r="BI23" t="s">
         <v>192</v>
+      </c>
+      <c r="BJ23">
+        <v>50000</v>
+      </c>
+      <c r="BK23">
+        <v>35356.52</v>
+      </c>
+      <c r="BL23">
+        <v>31990.3</v>
       </c>
       <c r="BM23" t="s">
         <v>192</v>
@@ -5384,22 +6779,52 @@
         <v>50000</v>
       </c>
       <c r="BO23">
+        <v>30929.2</v>
+      </c>
+      <c r="BP23">
+        <v>28963.21</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR23">
         <v>50000</v>
       </c>
-      <c r="BQ23" t="s">
-        <v>192</v>
+      <c r="BS23">
+        <v>44437.3</v>
+      </c>
+      <c r="BT23">
+        <v>40274.01</v>
       </c>
       <c r="BU23" t="s">
         <v>192</v>
       </c>
+      <c r="BV23">
+        <v>50000</v>
+      </c>
+      <c r="BW23">
+        <v>41770.81</v>
+      </c>
+      <c r="BX23">
+        <v>25607.22</v>
+      </c>
       <c r="BY23" t="s">
         <v>192</v>
       </c>
+      <c r="BZ23">
+        <v>50000</v>
+      </c>
+      <c r="CA23">
+        <v>44782.98</v>
+      </c>
+      <c r="CB23">
+        <v>36175.55</v>
+      </c>
       <c r="CC23" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -5520,17 +6945,62 @@
       <c r="AO24">
         <v>200000</v>
       </c>
+      <c r="AP24">
+        <v>300000</v>
+      </c>
+      <c r="AQ24">
+        <v>251875.92</v>
+      </c>
+      <c r="AR24">
+        <v>191326.73</v>
+      </c>
       <c r="AS24" t="s">
         <v>192</v>
       </c>
+      <c r="AT24">
+        <v>300000</v>
+      </c>
+      <c r="AU24">
+        <v>237801.17</v>
+      </c>
+      <c r="AV24">
+        <v>155834.14</v>
+      </c>
       <c r="AW24" t="s">
         <v>192</v>
       </c>
+      <c r="AX24">
+        <v>300000</v>
+      </c>
+      <c r="AY24">
+        <v>219039.55</v>
+      </c>
+      <c r="AZ24">
+        <v>181261.09</v>
+      </c>
       <c r="BA24" t="s">
         <v>192</v>
       </c>
+      <c r="BB24">
+        <v>300000</v>
+      </c>
+      <c r="BC24">
+        <v>260527.41</v>
+      </c>
+      <c r="BD24">
+        <v>180594.09</v>
+      </c>
       <c r="BE24" t="s">
         <v>192</v>
+      </c>
+      <c r="BF24">
+        <v>300000</v>
+      </c>
+      <c r="BG24">
+        <v>278379.59</v>
+      </c>
+      <c r="BH24">
+        <v>221266.53</v>
       </c>
       <c r="BI24" t="s">
         <v>192</v>
@@ -5539,10 +7009,10 @@
         <v>300000</v>
       </c>
       <c r="BK24">
-        <v>200000</v>
+        <v>220949.2</v>
       </c>
       <c r="BL24">
-        <v>200000</v>
+        <v>177280.37</v>
       </c>
       <c r="BM24" t="s">
         <v>349</v>
@@ -5551,22 +7021,52 @@
         <v>50000</v>
       </c>
       <c r="BO24">
+        <v>33498.35</v>
+      </c>
+      <c r="BP24">
+        <v>26552.3</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR24">
         <v>50000</v>
       </c>
-      <c r="BQ24" t="s">
-        <v>192</v>
+      <c r="BS24">
+        <v>42039.79</v>
+      </c>
+      <c r="BT24">
+        <v>39583</v>
       </c>
       <c r="BU24" t="s">
         <v>192</v>
       </c>
+      <c r="BV24">
+        <v>50000</v>
+      </c>
+      <c r="BW24">
+        <v>38403.52</v>
+      </c>
+      <c r="BX24">
+        <v>34026.66</v>
+      </c>
       <c r="BY24" t="s">
         <v>192</v>
       </c>
+      <c r="BZ24">
+        <v>50000</v>
+      </c>
+      <c r="CA24">
+        <v>36915.23</v>
+      </c>
+      <c r="CB24">
+        <v>26352.94</v>
+      </c>
       <c r="CC24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -5687,20 +7187,74 @@
       <c r="AO25">
         <v>20000</v>
       </c>
+      <c r="AP25">
+        <v>50000</v>
+      </c>
+      <c r="AQ25">
+        <v>33357.54</v>
+      </c>
+      <c r="AR25">
+        <v>30634.12</v>
+      </c>
       <c r="AS25" t="s">
         <v>192</v>
       </c>
+      <c r="AT25">
+        <v>50000</v>
+      </c>
+      <c r="AU25">
+        <v>30273.89</v>
+      </c>
+      <c r="AV25">
+        <v>28690.09</v>
+      </c>
       <c r="AW25" t="s">
         <v>192</v>
       </c>
+      <c r="AX25">
+        <v>50000</v>
+      </c>
+      <c r="AY25">
+        <v>40810.83</v>
+      </c>
+      <c r="AZ25">
+        <v>26651.43</v>
+      </c>
       <c r="BA25" t="s">
         <v>192</v>
       </c>
+      <c r="BB25">
+        <v>50000</v>
+      </c>
+      <c r="BC25">
+        <v>45671.84</v>
+      </c>
+      <c r="BD25">
+        <v>38408.68</v>
+      </c>
       <c r="BE25" t="s">
         <v>192</v>
       </c>
+      <c r="BF25">
+        <v>50000</v>
+      </c>
+      <c r="BG25">
+        <v>32867.97</v>
+      </c>
+      <c r="BH25">
+        <v>28188.46</v>
+      </c>
       <c r="BI25" t="s">
         <v>192</v>
+      </c>
+      <c r="BJ25">
+        <v>50000</v>
+      </c>
+      <c r="BK25">
+        <v>35011.6</v>
+      </c>
+      <c r="BL25">
+        <v>30921.58</v>
       </c>
       <c r="BM25" t="s">
         <v>192</v>
@@ -5709,19 +7263,46 @@
         <v>50000</v>
       </c>
       <c r="BO25">
-        <v>41000</v>
+        <v>31307.42</v>
       </c>
       <c r="BP25">
+        <v>28024.97</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR25">
         <v>20000</v>
       </c>
-      <c r="BQ25" t="s">
-        <v>192</v>
+      <c r="BS25">
+        <v>12650.16</v>
+      </c>
+      <c r="BT25">
+        <v>10727.68</v>
       </c>
       <c r="BU25" t="s">
         <v>192</v>
       </c>
+      <c r="BV25">
+        <v>20000</v>
+      </c>
+      <c r="BW25">
+        <v>15715.44</v>
+      </c>
+      <c r="BX25">
+        <v>9802.51</v>
+      </c>
       <c r="BY25" t="s">
         <v>192</v>
+      </c>
+      <c r="BZ25">
+        <v>20000</v>
+      </c>
+      <c r="CA25">
+        <v>12784.06</v>
+      </c>
+      <c r="CB25">
+        <v>10535.69</v>
       </c>
       <c r="CC25" t="s">
         <v>192</v>

--- a/src/data/Arab States/IFF - Transnational _Crimes.xlsx
+++ b/src/data/Arab States/IFF - Transnational _Crimes.xlsx
@@ -1820,10 +1820,10 @@
         <v>31400</v>
       </c>
       <c r="AQ2">
-        <v>23574.57</v>
+        <v>25534.71</v>
       </c>
       <c r="AR2">
-        <v>16457.79</v>
+        <v>23568.56</v>
       </c>
       <c r="AS2" t="s">
         <v>192</v>
@@ -1832,10 +1832,10 @@
         <v>31400</v>
       </c>
       <c r="AU2">
-        <v>26974.7</v>
+        <v>21732.2</v>
       </c>
       <c r="AV2">
-        <v>21467.99</v>
+        <v>14733.95</v>
       </c>
       <c r="AW2" t="s">
         <v>192</v>
@@ -1844,10 +1844,10 @@
         <v>31400</v>
       </c>
       <c r="AY2">
-        <v>22557.45</v>
+        <v>25529.68</v>
       </c>
       <c r="AZ2">
-        <v>15739.97</v>
+        <v>20880.42</v>
       </c>
       <c r="BA2" t="s">
         <v>192</v>
@@ -1856,10 +1856,10 @@
         <v>31400</v>
       </c>
       <c r="BC2">
-        <v>27810.28</v>
+        <v>27045.7</v>
       </c>
       <c r="BD2">
-        <v>22877.62</v>
+        <v>24362.07</v>
       </c>
       <c r="BE2" t="s">
         <v>192</v>
@@ -1868,10 +1868,10 @@
         <v>31400</v>
       </c>
       <c r="BG2">
-        <v>25545.61</v>
+        <v>25086.67</v>
       </c>
       <c r="BH2">
-        <v>20004.57</v>
+        <v>17237.21</v>
       </c>
       <c r="BI2" t="s">
         <v>192</v>
@@ -1880,10 +1880,10 @@
         <v>31400</v>
       </c>
       <c r="BK2">
-        <v>22091.71</v>
+        <v>22362.16</v>
       </c>
       <c r="BL2">
-        <v>14959.63</v>
+        <v>16461.85</v>
       </c>
       <c r="BM2" t="s">
         <v>192</v>
@@ -1892,10 +1892,10 @@
         <v>111500</v>
       </c>
       <c r="BO2">
-        <v>99823.31</v>
+        <v>83373.25999999999</v>
       </c>
       <c r="BP2">
-        <v>88160.72</v>
+        <v>65976.10000000001</v>
       </c>
       <c r="BQ2" t="s">
         <v>192</v>
@@ -1904,10 +1904,10 @@
         <v>75000</v>
       </c>
       <c r="BS2">
-        <v>48093.94</v>
+        <v>60327.7</v>
       </c>
       <c r="BT2">
-        <v>39692.65</v>
+        <v>54490.1</v>
       </c>
       <c r="BU2" t="s">
         <v>192</v>
@@ -1916,10 +1916,10 @@
         <v>75000</v>
       </c>
       <c r="BW2">
-        <v>58775.9</v>
+        <v>64988.78</v>
       </c>
       <c r="BX2">
-        <v>38260.89</v>
+        <v>47423.97</v>
       </c>
       <c r="BY2" t="s">
         <v>192</v>
@@ -1928,10 +1928,10 @@
         <v>75000</v>
       </c>
       <c r="CA2">
-        <v>65345.59</v>
+        <v>69463.8</v>
       </c>
       <c r="CB2">
-        <v>60736.51</v>
+        <v>60495.23</v>
       </c>
       <c r="CC2" t="s">
         <v>192</v>
@@ -2053,10 +2053,10 @@
         <v>490909</v>
       </c>
       <c r="AQ3">
-        <v>352715.36</v>
+        <v>409623.03</v>
       </c>
       <c r="AR3">
-        <v>245925.4</v>
+        <v>281421.86</v>
       </c>
       <c r="AS3" t="s">
         <v>192</v>
@@ -2065,10 +2065,10 @@
         <v>490909</v>
       </c>
       <c r="AU3">
-        <v>371598.35</v>
+        <v>359014.08</v>
       </c>
       <c r="AV3">
-        <v>287901.79</v>
+        <v>313672.21</v>
       </c>
       <c r="AW3" t="s">
         <v>192</v>
@@ -2077,10 +2077,10 @@
         <v>490909</v>
       </c>
       <c r="AY3">
-        <v>392701.96</v>
+        <v>412469.8</v>
       </c>
       <c r="AZ3">
-        <v>338061.99</v>
+        <v>368609.26</v>
       </c>
       <c r="BA3" t="s">
         <v>192</v>
@@ -2089,10 +2089,10 @@
         <v>490909</v>
       </c>
       <c r="BC3">
-        <v>386607.02</v>
+        <v>330118.36</v>
       </c>
       <c r="BD3">
-        <v>333302.08</v>
+        <v>252561.47</v>
       </c>
       <c r="BE3" t="s">
         <v>192</v>
@@ -2101,10 +2101,10 @@
         <v>163636</v>
       </c>
       <c r="BG3">
-        <v>110366.78</v>
+        <v>139932.88</v>
       </c>
       <c r="BH3">
-        <v>90051.64999999999</v>
+        <v>118143.21</v>
       </c>
       <c r="BI3" t="s">
         <v>192</v>
@@ -2113,10 +2113,10 @@
         <v>163636</v>
       </c>
       <c r="BK3">
-        <v>108036.8</v>
+        <v>137882.11</v>
       </c>
       <c r="BL3">
-        <v>65933.98</v>
+        <v>105477.4</v>
       </c>
       <c r="BM3" t="s">
         <v>192</v>
@@ -2125,10 +2125,10 @@
         <v>163636</v>
       </c>
       <c r="BO3">
-        <v>134826.7</v>
+        <v>135932.5</v>
       </c>
       <c r="BP3">
-        <v>95278.58</v>
+        <v>113245.22</v>
       </c>
       <c r="BQ3" t="s">
         <v>192</v>
@@ -2137,10 +2137,10 @@
         <v>163636</v>
       </c>
       <c r="BS3">
-        <v>101424.83</v>
+        <v>110376.78</v>
       </c>
       <c r="BT3">
-        <v>66416.53999999999</v>
+        <v>82308.21000000001</v>
       </c>
       <c r="BU3" t="s">
         <v>192</v>
@@ -2149,10 +2149,10 @@
         <v>163636</v>
       </c>
       <c r="BW3">
-        <v>135890.69</v>
+        <v>114399.68</v>
       </c>
       <c r="BX3">
-        <v>119561.37</v>
+        <v>87845.63</v>
       </c>
       <c r="BY3" t="s">
         <v>192</v>
@@ -2161,10 +2161,10 @@
         <v>163636</v>
       </c>
       <c r="CA3">
-        <v>146968.92</v>
+        <v>118738.61</v>
       </c>
       <c r="CB3">
-        <v>106831.57</v>
+        <v>88363.64999999999</v>
       </c>
       <c r="CC3" t="s">
         <v>192</v>
@@ -2286,10 +2286,10 @@
         <v>2006156</v>
       </c>
       <c r="AQ4">
-        <v>1228260.63</v>
+        <v>1782566.33</v>
       </c>
       <c r="AR4">
-        <v>849404.75</v>
+        <v>1345474.32</v>
       </c>
       <c r="AS4" t="s">
         <v>192</v>
@@ -2298,10 +2298,10 @@
         <v>2006156</v>
       </c>
       <c r="AU4">
-        <v>1781944.74</v>
+        <v>1506219.75</v>
       </c>
       <c r="AV4">
-        <v>1076964.98</v>
+        <v>1270472.53</v>
       </c>
       <c r="AW4" t="s">
         <v>192</v>
@@ -2310,10 +2310,10 @@
         <v>2006156</v>
       </c>
       <c r="AY4">
-        <v>1380220.74</v>
+        <v>1676952.13</v>
       </c>
       <c r="AZ4">
-        <v>1081324.76</v>
+        <v>1334440.77</v>
       </c>
       <c r="BA4" t="s">
         <v>192</v>
@@ -2322,10 +2322,10 @@
         <v>2006156</v>
       </c>
       <c r="BC4">
-        <v>1311591.15</v>
+        <v>1441510.42</v>
       </c>
       <c r="BD4">
-        <v>1209156.74</v>
+        <v>1275673.95</v>
       </c>
       <c r="BE4" t="s">
         <v>192</v>
@@ -2334,10 +2334,10 @@
         <v>668718</v>
       </c>
       <c r="BG4">
-        <v>570897.86</v>
+        <v>520829.27</v>
       </c>
       <c r="BH4">
-        <v>344874.49</v>
+        <v>494787.8</v>
       </c>
       <c r="BI4" t="s">
         <v>192</v>
@@ -2346,10 +2346,10 @@
         <v>668718</v>
       </c>
       <c r="BK4">
-        <v>580199.0699999999</v>
+        <v>577776.9</v>
       </c>
       <c r="BL4">
-        <v>446913.71</v>
+        <v>485315.47</v>
       </c>
       <c r="BM4" t="s">
         <v>192</v>
@@ -2358,10 +2358,10 @@
         <v>668718</v>
       </c>
       <c r="BO4">
-        <v>550201.71</v>
+        <v>549462.97</v>
       </c>
       <c r="BP4">
-        <v>514894.76</v>
+        <v>436309.41</v>
       </c>
       <c r="BQ4" t="s">
         <v>192</v>
@@ -2370,10 +2370,10 @@
         <v>668718</v>
       </c>
       <c r="BS4">
-        <v>521098.09</v>
+        <v>423437.33</v>
       </c>
       <c r="BT4">
-        <v>320991.13</v>
+        <v>290282.63</v>
       </c>
       <c r="BU4" t="s">
         <v>192</v>
@@ -2382,10 +2382,10 @@
         <v>668718</v>
       </c>
       <c r="BW4">
-        <v>439790.34</v>
+        <v>450898.45</v>
       </c>
       <c r="BX4">
-        <v>386013.55</v>
+        <v>355363.68</v>
       </c>
       <c r="BY4" t="s">
         <v>192</v>
@@ -2394,10 +2394,10 @@
         <v>668718</v>
       </c>
       <c r="CA4">
-        <v>526407.01</v>
+        <v>548094.8</v>
       </c>
       <c r="CB4">
-        <v>424789.01</v>
+        <v>453607.02</v>
       </c>
       <c r="CC4" t="s">
         <v>192</v>
@@ -2516,10 +2516,10 @@
         <v>150000</v>
       </c>
       <c r="AQ5">
-        <v>133856.93</v>
+        <v>119291.09</v>
       </c>
       <c r="AR5">
-        <v>114431.63</v>
+        <v>89415.44</v>
       </c>
       <c r="AS5" t="s">
         <v>192</v>
@@ -2528,10 +2528,10 @@
         <v>150000</v>
       </c>
       <c r="AU5">
-        <v>135430.09</v>
+        <v>121227.66</v>
       </c>
       <c r="AV5">
-        <v>83474.12</v>
+        <v>92509.61</v>
       </c>
       <c r="AW5" t="s">
         <v>192</v>
@@ -2540,10 +2540,10 @@
         <v>150000</v>
       </c>
       <c r="AY5">
-        <v>107463.37</v>
+        <v>116614.28</v>
       </c>
       <c r="AZ5">
-        <v>82568.17999999999</v>
+        <v>100609.1</v>
       </c>
       <c r="BA5" t="s">
         <v>192</v>
@@ -2552,10 +2552,10 @@
         <v>106000</v>
       </c>
       <c r="BC5">
-        <v>73638.78999999999</v>
+        <v>84935.31</v>
       </c>
       <c r="BD5">
-        <v>50955.47</v>
+        <v>64155.89</v>
       </c>
       <c r="BE5" t="s">
         <v>192</v>
@@ -2564,10 +2564,10 @@
         <v>150000</v>
       </c>
       <c r="BG5">
-        <v>109237.01</v>
+        <v>113858.14</v>
       </c>
       <c r="BH5">
-        <v>97369.77</v>
+        <v>90931.14999999999</v>
       </c>
       <c r="BI5" t="s">
         <v>192</v>
@@ -2576,10 +2576,10 @@
         <v>150000</v>
       </c>
       <c r="BK5">
-        <v>141383.44</v>
+        <v>136955.52</v>
       </c>
       <c r="BL5">
-        <v>106567.07</v>
+        <v>96861.92999999999</v>
       </c>
       <c r="BM5" t="s">
         <v>192</v>
@@ -2588,10 +2588,10 @@
         <v>200000</v>
       </c>
       <c r="BO5">
-        <v>165386.97</v>
+        <v>153683.76</v>
       </c>
       <c r="BP5">
-        <v>154593.41</v>
+        <v>118746.74</v>
       </c>
       <c r="BQ5" t="s">
         <v>192</v>
@@ -2600,10 +2600,10 @@
         <v>200000</v>
       </c>
       <c r="BS5">
-        <v>133692.89</v>
+        <v>172644.43</v>
       </c>
       <c r="BT5">
-        <v>86587.58</v>
+        <v>138870.42</v>
       </c>
       <c r="BU5" t="s">
         <v>192</v>
@@ -2612,10 +2612,10 @@
         <v>200000</v>
       </c>
       <c r="BW5">
-        <v>126507.94</v>
+        <v>160402.83</v>
       </c>
       <c r="BX5">
-        <v>102090.65</v>
+        <v>143703.45</v>
       </c>
       <c r="BY5" t="s">
         <v>192</v>
@@ -2624,10 +2624,10 @@
         <v>200000</v>
       </c>
       <c r="CA5">
-        <v>170105.9</v>
+        <v>140097.39</v>
       </c>
       <c r="CB5">
-        <v>141719.32</v>
+        <v>132042.01</v>
       </c>
       <c r="CC5" t="s">
         <v>192</v>
@@ -2755,10 +2755,10 @@
         <v>20000</v>
       </c>
       <c r="AQ6">
-        <v>16352.87</v>
+        <v>17768.9</v>
       </c>
       <c r="AR6">
-        <v>14975.5</v>
+        <v>14196.9</v>
       </c>
       <c r="AS6" t="s">
         <v>192</v>
@@ -2767,10 +2767,10 @@
         <v>20000</v>
       </c>
       <c r="AU6">
-        <v>16311.39</v>
+        <v>17051.09</v>
       </c>
       <c r="AV6">
-        <v>11688.63</v>
+        <v>14599.08</v>
       </c>
       <c r="AW6" t="s">
         <v>192</v>
@@ -2779,10 +2779,10 @@
         <v>20000</v>
       </c>
       <c r="AY6">
-        <v>13129.17</v>
+        <v>15758.51</v>
       </c>
       <c r="AZ6">
-        <v>10221.6</v>
+        <v>12292.33</v>
       </c>
       <c r="BA6" t="s">
         <v>192</v>
@@ -2791,10 +2791,10 @@
         <v>20000</v>
       </c>
       <c r="BC6">
-        <v>17704.32</v>
+        <v>14724.54</v>
       </c>
       <c r="BD6">
-        <v>12692.17</v>
+        <v>12958.35</v>
       </c>
       <c r="BE6" t="s">
         <v>340</v>
@@ -2803,10 +2803,10 @@
         <v>23000</v>
       </c>
       <c r="BG6">
-        <v>18889.3</v>
+        <v>20009.88</v>
       </c>
       <c r="BH6">
-        <v>15401.29</v>
+        <v>15650.08</v>
       </c>
       <c r="BI6" t="s">
         <v>343</v>
@@ -2815,10 +2815,10 @@
         <v>150000</v>
       </c>
       <c r="BK6">
-        <v>134275.9</v>
+        <v>111352.71</v>
       </c>
       <c r="BL6">
-        <v>126062.66</v>
+        <v>84648.53999999999</v>
       </c>
       <c r="BM6" t="s">
         <v>192</v>
@@ -2827,10 +2827,10 @@
         <v>15000</v>
       </c>
       <c r="BO6">
-        <v>10599.05</v>
+        <v>11167.45</v>
       </c>
       <c r="BP6">
-        <v>9497.809999999999</v>
+        <v>9131.65</v>
       </c>
       <c r="BQ6" t="s">
         <v>192</v>
@@ -2839,10 +2839,10 @@
         <v>15000</v>
       </c>
       <c r="BS6">
-        <v>9213.02</v>
+        <v>9921.469999999999</v>
       </c>
       <c r="BT6">
-        <v>8658.85</v>
+        <v>8538.709999999999</v>
       </c>
       <c r="BU6" t="s">
         <v>192</v>
@@ -2851,10 +2851,10 @@
         <v>15000</v>
       </c>
       <c r="BW6">
-        <v>13191.97</v>
+        <v>10193.14</v>
       </c>
       <c r="BX6">
-        <v>8589.09</v>
+        <v>9092.129999999999</v>
       </c>
       <c r="BY6" t="s">
         <v>192</v>
@@ -2863,10 +2863,10 @@
         <v>15000</v>
       </c>
       <c r="CA6">
-        <v>10045.13</v>
+        <v>10991.77</v>
       </c>
       <c r="CB6">
-        <v>8991.030000000001</v>
+        <v>9691.059999999999</v>
       </c>
       <c r="CC6" t="s">
         <v>192</v>
@@ -2985,10 +2985,10 @@
         <v>590713.9</v>
       </c>
       <c r="AQ7">
-        <v>409036.16</v>
+        <v>434801.52</v>
       </c>
       <c r="AR7">
-        <v>328124.53</v>
+        <v>302030.99</v>
       </c>
       <c r="AS7" t="s">
         <v>192</v>
@@ -2997,10 +2997,10 @@
         <v>590713.9</v>
       </c>
       <c r="AU7">
-        <v>494653.6</v>
+        <v>536143.5600000001</v>
       </c>
       <c r="AV7">
-        <v>311602.1</v>
+        <v>459030.89</v>
       </c>
       <c r="AW7" t="s">
         <v>192</v>
@@ -3009,10 +3009,10 @@
         <v>590713.9</v>
       </c>
       <c r="AY7">
-        <v>364217.33</v>
+        <v>505026.99</v>
       </c>
       <c r="AZ7">
-        <v>325609.95</v>
+        <v>365374.06</v>
       </c>
       <c r="BA7" t="s">
         <v>192</v>
@@ -3021,10 +3021,10 @@
         <v>765962.7</v>
       </c>
       <c r="BC7">
-        <v>682279.65</v>
+        <v>557898.62</v>
       </c>
       <c r="BD7">
-        <v>487695.85</v>
+        <v>471516.45</v>
       </c>
       <c r="BE7" t="s">
         <v>192</v>
@@ -3033,10 +3033,10 @@
         <v>315153</v>
       </c>
       <c r="BG7">
-        <v>214308.59</v>
+        <v>217381.11</v>
       </c>
       <c r="BH7">
-        <v>175996.87</v>
+        <v>171881.43</v>
       </c>
       <c r="BI7" t="s">
         <v>192</v>
@@ -3045,10 +3045,10 @@
         <v>400000</v>
       </c>
       <c r="BK7">
-        <v>243144.69</v>
+        <v>251294.93</v>
       </c>
       <c r="BL7">
-        <v>154849.52</v>
+        <v>204411.36</v>
       </c>
       <c r="BM7" t="s">
         <v>192</v>
@@ -3057,10 +3057,10 @@
         <v>200000</v>
       </c>
       <c r="BO7">
-        <v>170292.79</v>
+        <v>151242.92</v>
       </c>
       <c r="BP7">
-        <v>151002.27</v>
+        <v>123002.98</v>
       </c>
       <c r="BQ7" t="s">
         <v>192</v>
@@ -3069,10 +3069,10 @@
         <v>200000</v>
       </c>
       <c r="BS7">
-        <v>151511.64</v>
+        <v>165412.99</v>
       </c>
       <c r="BT7">
-        <v>136455.56</v>
+        <v>113670.28</v>
       </c>
       <c r="BU7" t="s">
         <v>192</v>
@@ -3081,10 +3081,10 @@
         <v>200000</v>
       </c>
       <c r="BW7">
-        <v>160006.34</v>
+        <v>151660.58</v>
       </c>
       <c r="BX7">
-        <v>119797.93</v>
+        <v>144077.56</v>
       </c>
       <c r="BY7" t="s">
         <v>192</v>
@@ -3093,10 +3093,10 @@
         <v>200000</v>
       </c>
       <c r="CA7">
-        <v>179442.77</v>
+        <v>173232.45</v>
       </c>
       <c r="CB7">
-        <v>133060.95</v>
+        <v>154144.58</v>
       </c>
       <c r="CC7" t="s">
         <v>192</v>
@@ -3215,10 +3215,10 @@
         <v>334485</v>
       </c>
       <c r="AQ8">
-        <v>204358.38</v>
+        <v>242702.77</v>
       </c>
       <c r="AR8">
-        <v>186416.18</v>
+        <v>195933.03</v>
       </c>
       <c r="AS8" t="s">
         <v>192</v>
@@ -3227,10 +3227,10 @@
         <v>334485</v>
       </c>
       <c r="AU8">
-        <v>265809.01</v>
+        <v>279578.14</v>
       </c>
       <c r="AV8">
-        <v>239050.54</v>
+        <v>218695.9</v>
       </c>
       <c r="AW8" t="s">
         <v>192</v>
@@ -3239,10 +3239,10 @@
         <v>334485</v>
       </c>
       <c r="AY8">
-        <v>274170.96</v>
+        <v>255171.49</v>
       </c>
       <c r="AZ8">
-        <v>254847.84</v>
+        <v>191838.14</v>
       </c>
       <c r="BA8" t="s">
         <v>192</v>
@@ -3251,10 +3251,10 @@
         <v>334485</v>
       </c>
       <c r="BC8">
-        <v>265159.9</v>
+        <v>229268.22</v>
       </c>
       <c r="BD8">
-        <v>180519.73</v>
+        <v>189275.92</v>
       </c>
       <c r="BE8" t="s">
         <v>192</v>
@@ -3263,10 +3263,10 @@
         <v>334485</v>
       </c>
       <c r="BG8">
-        <v>292725.39</v>
+        <v>246677.77</v>
       </c>
       <c r="BH8">
-        <v>216796.74</v>
+        <v>188915.74</v>
       </c>
       <c r="BI8" t="s">
         <v>192</v>
@@ -3275,10 +3275,10 @@
         <v>334485</v>
       </c>
       <c r="BK8">
-        <v>241415.32</v>
+        <v>242101.96</v>
       </c>
       <c r="BL8">
-        <v>218369.97</v>
+        <v>182145.71</v>
       </c>
       <c r="BM8" t="s">
         <v>192</v>
@@ -3287,10 +3287,10 @@
         <v>334485</v>
       </c>
       <c r="BO8">
-        <v>283899.84</v>
+        <v>230814.3</v>
       </c>
       <c r="BP8">
-        <v>218071.13</v>
+        <v>188449.63</v>
       </c>
       <c r="BQ8" t="s">
         <v>192</v>
@@ -3299,10 +3299,10 @@
         <v>334485</v>
       </c>
       <c r="BS8">
-        <v>242628.05</v>
+        <v>306617.65</v>
       </c>
       <c r="BT8">
-        <v>149193.73</v>
+        <v>243255.16</v>
       </c>
       <c r="BU8" t="s">
         <v>192</v>
@@ -3311,10 +3311,10 @@
         <v>334485</v>
       </c>
       <c r="BW8">
-        <v>271784.58</v>
+        <v>256845.96</v>
       </c>
       <c r="BX8">
-        <v>203424.67</v>
+        <v>212717.96</v>
       </c>
       <c r="BY8" t="s">
         <v>192</v>
@@ -3323,10 +3323,10 @@
         <v>334485</v>
       </c>
       <c r="CA8">
-        <v>216017.15</v>
+        <v>263145.17</v>
       </c>
       <c r="CB8">
-        <v>175621.59</v>
+        <v>225254.72</v>
       </c>
       <c r="CC8" t="s">
         <v>192</v>
@@ -3457,10 +3457,10 @@
         <v>44000</v>
       </c>
       <c r="AQ9">
-        <v>33295.15</v>
+        <v>33315.66</v>
       </c>
       <c r="AR9">
-        <v>22049.88</v>
+        <v>25804.21</v>
       </c>
       <c r="AS9" t="s">
         <v>192</v>
@@ -3469,10 +3469,10 @@
         <v>44000</v>
       </c>
       <c r="AU9">
-        <v>34017.42</v>
+        <v>36569.54</v>
       </c>
       <c r="AV9">
-        <v>21414.69</v>
+        <v>33397.13</v>
       </c>
       <c r="AW9" t="s">
         <v>192</v>
@@ -3481,10 +3481,10 @@
         <v>44000</v>
       </c>
       <c r="AY9">
-        <v>35635.87</v>
+        <v>34785.09</v>
       </c>
       <c r="AZ9">
-        <v>23653.6</v>
+        <v>21749.9</v>
       </c>
       <c r="BA9" t="s">
         <v>192</v>
@@ -3493,10 +3493,10 @@
         <v>44000</v>
       </c>
       <c r="BC9">
-        <v>37665.41</v>
+        <v>38430.09</v>
       </c>
       <c r="BD9">
-        <v>24800.01</v>
+        <v>32688.22</v>
       </c>
       <c r="BE9" t="s">
         <v>192</v>
@@ -3505,10 +3505,10 @@
         <v>44000</v>
       </c>
       <c r="BG9">
-        <v>29204.22</v>
+        <v>39794.08</v>
       </c>
       <c r="BH9">
-        <v>18312.39</v>
+        <v>26462.26</v>
       </c>
       <c r="BI9" t="s">
         <v>192</v>
@@ -3517,10 +3517,10 @@
         <v>44000</v>
       </c>
       <c r="BK9">
-        <v>39304.44</v>
+        <v>34336.38</v>
       </c>
       <c r="BL9">
-        <v>28627.67</v>
+        <v>23606.28</v>
       </c>
       <c r="BM9" t="s">
         <v>192</v>
@@ -3529,10 +3529,10 @@
         <v>44000</v>
       </c>
       <c r="BO9">
-        <v>36973.25</v>
+        <v>34090.29</v>
       </c>
       <c r="BP9">
-        <v>34245.79</v>
+        <v>27762.63</v>
       </c>
       <c r="BQ9" t="s">
         <v>192</v>
@@ -3541,10 +3541,10 @@
         <v>44000</v>
       </c>
       <c r="BS9">
-        <v>37113.07</v>
+        <v>40424.39</v>
       </c>
       <c r="BT9">
-        <v>22771.24</v>
+        <v>32207.23</v>
       </c>
       <c r="BU9" t="s">
         <v>192</v>
@@ -3553,10 +3553,10 @@
         <v>44000</v>
       </c>
       <c r="BW9">
-        <v>30264.04</v>
+        <v>29619.8</v>
       </c>
       <c r="BX9">
-        <v>20846.89</v>
+        <v>21376.42</v>
       </c>
       <c r="BY9" t="s">
         <v>192</v>
@@ -3565,10 +3565,10 @@
         <v>44000</v>
       </c>
       <c r="CA9">
-        <v>31901.8</v>
+        <v>35661.37</v>
       </c>
       <c r="CB9">
-        <v>27419.17</v>
+        <v>26225.7</v>
       </c>
       <c r="CC9" t="s">
         <v>192</v>
@@ -3690,10 +3690,10 @@
         <v>250000</v>
       </c>
       <c r="AQ10">
-        <v>170940.2</v>
+        <v>216674.3</v>
       </c>
       <c r="AR10">
-        <v>153313.48</v>
+        <v>145266.57</v>
       </c>
       <c r="AS10" t="s">
         <v>192</v>
@@ -3702,10 +3702,10 @@
         <v>250000</v>
       </c>
       <c r="AU10">
-        <v>153270.61</v>
+        <v>188838.31</v>
       </c>
       <c r="AV10">
-        <v>125286.53</v>
+        <v>152850.33</v>
       </c>
       <c r="AW10" t="s">
         <v>192</v>
@@ -3714,10 +3714,10 @@
         <v>250000</v>
       </c>
       <c r="AY10">
-        <v>192354.44</v>
+        <v>192152.52</v>
       </c>
       <c r="AZ10">
-        <v>160162.65</v>
+        <v>164053.23</v>
       </c>
       <c r="BA10" t="s">
         <v>192</v>
@@ -3726,10 +3726,10 @@
         <v>500000</v>
       </c>
       <c r="BC10">
-        <v>457400.51</v>
+        <v>408245.7</v>
       </c>
       <c r="BD10">
-        <v>333937.63</v>
+        <v>387833.41</v>
       </c>
       <c r="BE10" t="s">
         <v>192</v>
@@ -3738,10 +3738,10 @@
         <v>500000</v>
       </c>
       <c r="BG10">
-        <v>388496.74</v>
+        <v>405701.54</v>
       </c>
       <c r="BH10">
-        <v>326084.94</v>
+        <v>377472.37</v>
       </c>
       <c r="BI10" t="s">
         <v>192</v>
@@ -3750,10 +3750,10 @@
         <v>500000</v>
       </c>
       <c r="BK10">
-        <v>334983.21</v>
+        <v>388388.27</v>
       </c>
       <c r="BL10">
-        <v>295057.33</v>
+        <v>306780.65</v>
       </c>
       <c r="BM10" t="s">
         <v>192</v>
@@ -3762,10 +3762,10 @@
         <v>500000</v>
       </c>
       <c r="BO10">
-        <v>373069.71</v>
+        <v>425643.57</v>
       </c>
       <c r="BP10">
-        <v>348115.4</v>
+        <v>303190.15</v>
       </c>
       <c r="BQ10" t="s">
         <v>192</v>
@@ -3774,10 +3774,10 @@
         <v>500000</v>
       </c>
       <c r="BS10">
-        <v>396736.89</v>
+        <v>378636.87</v>
       </c>
       <c r="BT10">
-        <v>257358.94</v>
+        <v>303830.11</v>
       </c>
       <c r="BU10" t="s">
         <v>192</v>
@@ -3786,10 +3786,10 @@
         <v>500000</v>
       </c>
       <c r="BW10">
-        <v>451322.53</v>
+        <v>420141.79</v>
       </c>
       <c r="BX10">
-        <v>295507.49</v>
+        <v>315319.31</v>
       </c>
       <c r="BY10" t="s">
         <v>192</v>
@@ -3798,10 +3798,10 @@
         <v>500000</v>
       </c>
       <c r="CA10">
-        <v>355239.99</v>
+        <v>390196.42</v>
       </c>
       <c r="CB10">
-        <v>245843.75</v>
+        <v>282405.47</v>
       </c>
       <c r="CC10" t="s">
         <v>192</v>
@@ -3920,10 +3920,10 @@
         <v>1600000</v>
       </c>
       <c r="AQ11">
-        <v>1020931.45</v>
+        <v>1317917.98</v>
       </c>
       <c r="AR11">
-        <v>943157.87</v>
+        <v>1158681.02</v>
       </c>
       <c r="AS11" t="s">
         <v>192</v>
@@ -3932,10 +3932,10 @@
         <v>1600000</v>
       </c>
       <c r="AU11">
-        <v>998937.12</v>
+        <v>1474370.6</v>
       </c>
       <c r="AV11">
-        <v>624286.86</v>
+        <v>1313741.18</v>
       </c>
       <c r="AW11" t="s">
         <v>192</v>
@@ -3944,10 +3944,10 @@
         <v>1600000</v>
       </c>
       <c r="AY11">
-        <v>1169565.07</v>
+        <v>1215819.52</v>
       </c>
       <c r="AZ11">
-        <v>927964.96</v>
+        <v>1099604.74</v>
       </c>
       <c r="BA11" t="s">
         <v>192</v>
@@ -3956,10 +3956,10 @@
         <v>2000000</v>
       </c>
       <c r="BC11">
-        <v>1530102.14</v>
+        <v>1704648.66</v>
       </c>
       <c r="BD11">
-        <v>930925.87</v>
+        <v>1206714.79</v>
       </c>
       <c r="BE11" t="s">
         <v>192</v>
@@ -3968,10 +3968,10 @@
         <v>1600000</v>
       </c>
       <c r="BG11">
-        <v>1051077.99</v>
+        <v>1173064.22</v>
       </c>
       <c r="BH11">
-        <v>785686.34</v>
+        <v>1030281.06</v>
       </c>
       <c r="BI11" t="s">
         <v>192</v>
@@ -3980,10 +3980,10 @@
         <v>887381</v>
       </c>
       <c r="BK11">
-        <v>717820.33</v>
+        <v>711733.36</v>
       </c>
       <c r="BL11">
-        <v>438631.41</v>
+        <v>599476.22</v>
       </c>
       <c r="BM11" t="s">
         <v>192</v>
@@ -3992,10 +3992,10 @@
         <v>187000</v>
       </c>
       <c r="BO11">
-        <v>115433.23</v>
+        <v>130030.01</v>
       </c>
       <c r="BP11">
-        <v>69832.53999999999</v>
+        <v>90683.36</v>
       </c>
       <c r="BQ11" t="s">
         <v>192</v>
@@ -4004,10 +4004,10 @@
         <v>187000</v>
       </c>
       <c r="BS11">
-        <v>156104.97</v>
+        <v>159395.56</v>
       </c>
       <c r="BT11">
-        <v>142437.41</v>
+        <v>118063.79</v>
       </c>
       <c r="BU11" t="s">
         <v>192</v>
@@ -4016,10 +4016,10 @@
         <v>187000</v>
       </c>
       <c r="BW11">
-        <v>120257.83</v>
+        <v>160785.99</v>
       </c>
       <c r="BX11">
-        <v>76240.78</v>
+        <v>152746.69</v>
       </c>
       <c r="BY11" t="s">
         <v>192</v>
@@ -4028,10 +4028,10 @@
         <v>187000</v>
       </c>
       <c r="CA11">
-        <v>168991.64</v>
+        <v>127850.19</v>
       </c>
       <c r="CB11">
-        <v>137818.97</v>
+        <v>111191.11</v>
       </c>
       <c r="CC11" t="s">
         <v>192</v>
@@ -4305,10 +4305,10 @@
         <v>8950</v>
       </c>
       <c r="AQ13">
-        <v>6539.87</v>
+        <v>6727.99</v>
       </c>
       <c r="AR13">
-        <v>4498.64</v>
+        <v>4928.79</v>
       </c>
       <c r="AS13" t="s">
         <v>192</v>
@@ -4317,10 +4317,10 @@
         <v>8950</v>
       </c>
       <c r="AU13">
-        <v>6702.69</v>
+        <v>7666.81</v>
       </c>
       <c r="AV13">
-        <v>4513.11</v>
+        <v>6616.17</v>
       </c>
       <c r="AW13" t="s">
         <v>192</v>
@@ -4329,10 +4329,10 @@
         <v>8950</v>
       </c>
       <c r="AY13">
-        <v>5879.62</v>
+        <v>8307.51</v>
       </c>
       <c r="AZ13">
-        <v>5126.99</v>
+        <v>7488.05</v>
       </c>
       <c r="BA13" t="s">
         <v>192</v>
@@ -4341,10 +4341,10 @@
         <v>784777</v>
       </c>
       <c r="BC13">
-        <v>738888.33</v>
+        <v>669262.0699999999</v>
       </c>
       <c r="BD13">
-        <v>653629.01</v>
+        <v>531299.7</v>
       </c>
       <c r="BE13" t="s">
         <v>192</v>
@@ -4353,10 +4353,10 @@
         <v>1710946</v>
       </c>
       <c r="BG13">
-        <v>1367088.84</v>
+        <v>1330265.28</v>
       </c>
       <c r="BH13">
-        <v>894828.61</v>
+        <v>1254400.26</v>
       </c>
       <c r="BI13" t="s">
         <v>192</v>
@@ -4365,10 +4365,10 @@
         <v>2732400</v>
       </c>
       <c r="BK13">
-        <v>2408543.87</v>
+        <v>2285720.24</v>
       </c>
       <c r="BL13">
-        <v>2251835.1</v>
+        <v>1525479.4</v>
       </c>
       <c r="BM13" t="s">
         <v>192</v>
@@ -4377,10 +4377,10 @@
         <v>2732400</v>
       </c>
       <c r="BO13">
-        <v>2111683.42</v>
+        <v>2212230.17</v>
       </c>
       <c r="BP13">
-        <v>1894136.81</v>
+        <v>1606920.95</v>
       </c>
       <c r="BQ13" t="s">
         <v>192</v>
@@ -4389,10 +4389,10 @@
         <v>2732400</v>
       </c>
       <c r="BS13">
-        <v>2553475.16</v>
+        <v>2428338.99</v>
       </c>
       <c r="BT13">
-        <v>2003767.43</v>
+        <v>2043158.88</v>
       </c>
       <c r="BU13" t="s">
         <v>192</v>
@@ -4401,10 +4401,10 @@
         <v>2732400</v>
       </c>
       <c r="BW13">
-        <v>1710357.17</v>
+        <v>2352852.39</v>
       </c>
       <c r="BX13">
-        <v>1034889.69</v>
+        <v>2216773.89</v>
       </c>
       <c r="BY13" t="s">
         <v>192</v>
@@ -4413,10 +4413,10 @@
         <v>2732400</v>
       </c>
       <c r="CA13">
-        <v>1721677.25</v>
+        <v>1906707.64</v>
       </c>
       <c r="CB13">
-        <v>1448407.47</v>
+        <v>1622322.2</v>
       </c>
       <c r="CC13" t="s">
         <v>192</v>
@@ -4538,10 +4538,10 @@
         <v>331479</v>
       </c>
       <c r="AQ14">
-        <v>237388.87</v>
+        <v>257111.42</v>
       </c>
       <c r="AR14">
-        <v>176414.14</v>
+        <v>236389.05</v>
       </c>
       <c r="AS14" t="s">
         <v>192</v>
@@ -4550,10 +4550,10 @@
         <v>331479</v>
       </c>
       <c r="AU14">
-        <v>222577.73</v>
+        <v>314905.05</v>
       </c>
       <c r="AV14">
-        <v>171015.75</v>
+        <v>263932.14</v>
       </c>
       <c r="AW14" t="s">
         <v>192</v>
@@ -4562,10 +4562,10 @@
         <v>331479</v>
       </c>
       <c r="AY14">
-        <v>304408.93</v>
+        <v>242465.71</v>
       </c>
       <c r="AZ14">
-        <v>216193.29</v>
+        <v>213435.46</v>
       </c>
       <c r="BA14" t="s">
         <v>192</v>
@@ -4574,10 +4574,10 @@
         <v>702140</v>
       </c>
       <c r="BC14">
-        <v>531135.99</v>
+        <v>641504.41</v>
       </c>
       <c r="BD14">
-        <v>489755.97</v>
+        <v>477571.55</v>
       </c>
       <c r="BE14" t="s">
         <v>192</v>
@@ -4586,10 +4586,10 @@
         <v>939852</v>
       </c>
       <c r="BG14">
-        <v>652691.01</v>
+        <v>735622.84</v>
       </c>
       <c r="BH14">
-        <v>530601.6899999999</v>
+        <v>621064.27</v>
       </c>
       <c r="BI14" t="s">
         <v>192</v>
@@ -4598,10 +4598,10 @@
         <v>1000000</v>
       </c>
       <c r="BK14">
-        <v>614730.45</v>
+        <v>764016.28</v>
       </c>
       <c r="BL14">
-        <v>430345.59</v>
+        <v>633224.9300000001</v>
       </c>
       <c r="BM14" t="s">
         <v>192</v>
@@ -4610,10 +4610,10 @@
         <v>382000</v>
       </c>
       <c r="BO14">
-        <v>262335.59</v>
+        <v>273269.63</v>
       </c>
       <c r="BP14">
-        <v>221069.77</v>
+        <v>206822.22</v>
       </c>
       <c r="BQ14" t="s">
         <v>192</v>
@@ -4622,10 +4622,10 @@
         <v>382000</v>
       </c>
       <c r="BS14">
-        <v>300422.49</v>
+        <v>326050.26</v>
       </c>
       <c r="BT14">
-        <v>184278.45</v>
+        <v>240582.1</v>
       </c>
       <c r="BU14" t="s">
         <v>192</v>
@@ -4634,10 +4634,10 @@
         <v>382000</v>
       </c>
       <c r="BW14">
-        <v>250646.26</v>
+        <v>332400.59</v>
       </c>
       <c r="BX14">
-        <v>167295</v>
+        <v>284075.36</v>
       </c>
       <c r="BY14" t="s">
         <v>192</v>
@@ -4646,10 +4646,10 @@
         <v>382000</v>
       </c>
       <c r="CA14">
-        <v>329840.48</v>
+        <v>272382.48</v>
       </c>
       <c r="CB14">
-        <v>225057.17</v>
+        <v>248777.77</v>
       </c>
       <c r="CC14" t="s">
         <v>192</v>
@@ -4780,10 +4780,10 @@
         <v>685160</v>
       </c>
       <c r="AQ15">
-        <v>542536.8199999999</v>
+        <v>522576.63</v>
       </c>
       <c r="AR15">
-        <v>436949.73</v>
+        <v>496447.8</v>
       </c>
       <c r="AS15" t="s">
         <v>192</v>
@@ -4792,10 +4792,10 @@
         <v>685160</v>
       </c>
       <c r="AU15">
-        <v>478433.94</v>
+        <v>604963.9</v>
       </c>
       <c r="AV15">
-        <v>323776.95</v>
+        <v>574715.7</v>
       </c>
       <c r="AW15" t="s">
         <v>192</v>
@@ -4804,10 +4804,10 @@
         <v>685160</v>
       </c>
       <c r="AY15">
-        <v>601341.63</v>
+        <v>567662.9399999999</v>
       </c>
       <c r="AZ15">
-        <v>380156.71</v>
+        <v>481658.06</v>
       </c>
       <c r="BA15" t="s">
         <v>192</v>
@@ -4816,10 +4816,10 @@
         <v>685160</v>
       </c>
       <c r="BC15">
-        <v>634369.6899999999</v>
+        <v>585448.14</v>
       </c>
       <c r="BD15">
-        <v>498975.05</v>
+        <v>386240.75</v>
       </c>
       <c r="BE15" t="s">
         <v>192</v>
@@ -4828,10 +4828,10 @@
         <v>685160</v>
       </c>
       <c r="BG15">
-        <v>584961.09</v>
+        <v>442858.41</v>
       </c>
       <c r="BH15">
-        <v>481187.64</v>
+        <v>395432.71</v>
       </c>
       <c r="BI15" t="s">
         <v>192</v>
@@ -4840,10 +4840,10 @@
         <v>685160</v>
       </c>
       <c r="BK15">
-        <v>607608.62</v>
+        <v>586424.37</v>
       </c>
       <c r="BL15">
-        <v>488898.54</v>
+        <v>405268.62</v>
       </c>
       <c r="BM15" t="s">
         <v>192</v>
@@ -4852,10 +4852,10 @@
         <v>685160</v>
       </c>
       <c r="BO15">
-        <v>542247.09</v>
+        <v>569052.39</v>
       </c>
       <c r="BP15">
-        <v>380537.23</v>
+        <v>392048.78</v>
       </c>
       <c r="BQ15" t="s">
         <v>192</v>
@@ -4864,10 +4864,10 @@
         <v>329502</v>
       </c>
       <c r="BS15">
-        <v>286487.71</v>
+        <v>295221.57</v>
       </c>
       <c r="BT15">
-        <v>267772.31</v>
+        <v>207767.6</v>
       </c>
       <c r="BU15" t="s">
         <v>192</v>
@@ -4876,10 +4876,10 @@
         <v>329502</v>
       </c>
       <c r="BW15">
-        <v>228807.32</v>
+        <v>260122.39</v>
       </c>
       <c r="BX15">
-        <v>147217.79</v>
+        <v>232933.85</v>
       </c>
       <c r="BY15" t="s">
         <v>192</v>
@@ -4888,10 +4888,10 @@
         <v>329502</v>
       </c>
       <c r="CA15">
-        <v>309296.85</v>
+        <v>258716.6</v>
       </c>
       <c r="CB15">
-        <v>225941.47</v>
+        <v>204137.57</v>
       </c>
       <c r="CC15" t="s">
         <v>192</v>
@@ -5022,10 +5022,10 @@
         <v>125000</v>
       </c>
       <c r="AQ16">
-        <v>94592.09</v>
+        <v>94841.58</v>
       </c>
       <c r="AR16">
-        <v>71533.13</v>
+        <v>72100.39999999999</v>
       </c>
       <c r="AS16" t="s">
         <v>192</v>
@@ -5034,10 +5034,10 @@
         <v>125000</v>
       </c>
       <c r="AU16">
-        <v>97505.63</v>
+        <v>84043.75999999999</v>
       </c>
       <c r="AV16">
-        <v>68430.36</v>
+        <v>71194.11</v>
       </c>
       <c r="AW16" t="s">
         <v>192</v>
@@ -5046,10 +5046,10 @@
         <v>125000</v>
       </c>
       <c r="AY16">
-        <v>85793.32000000001</v>
+        <v>107761.3</v>
       </c>
       <c r="AZ16">
-        <v>65344.87</v>
+        <v>77118.33</v>
       </c>
       <c r="BA16" t="s">
         <v>192</v>
@@ -5058,10 +5058,10 @@
         <v>125000</v>
       </c>
       <c r="BC16">
-        <v>85230.97</v>
+        <v>82865.50999999999</v>
       </c>
       <c r="BD16">
-        <v>65669.49000000001</v>
+        <v>72621.60000000001</v>
       </c>
       <c r="BE16" t="s">
         <v>192</v>
@@ -5070,10 +5070,10 @@
         <v>125000</v>
       </c>
       <c r="BG16">
-        <v>106221.5</v>
+        <v>102711.52</v>
       </c>
       <c r="BH16">
-        <v>85351.8</v>
+        <v>79619.71000000001</v>
       </c>
       <c r="BI16" t="s">
         <v>192</v>
@@ -5082,10 +5082,10 @@
         <v>125000</v>
       </c>
       <c r="BK16">
-        <v>118284.33</v>
+        <v>99683.33</v>
       </c>
       <c r="BL16">
-        <v>108871.98</v>
+        <v>87799.28999999999</v>
       </c>
       <c r="BM16" t="s">
         <v>346</v>
@@ -5094,10 +5094,10 @@
         <v>20000</v>
       </c>
       <c r="BO16">
-        <v>14000.55</v>
+        <v>17422.08</v>
       </c>
       <c r="BP16">
-        <v>8759.4</v>
+        <v>13280.67</v>
       </c>
       <c r="BQ16" t="s">
         <v>350</v>
@@ -5106,10 +5106,10 @@
         <v>27500</v>
       </c>
       <c r="BS16">
-        <v>20718</v>
+        <v>21330.03</v>
       </c>
       <c r="BT16">
-        <v>18186.1</v>
+        <v>15061.11</v>
       </c>
       <c r="BU16" t="s">
         <v>192</v>
@@ -5118,10 +5118,10 @@
         <v>27500</v>
       </c>
       <c r="BW16">
-        <v>17406.25</v>
+        <v>24424.59</v>
       </c>
       <c r="BX16">
-        <v>13742.53</v>
+        <v>21310.27</v>
       </c>
       <c r="BY16" t="s">
         <v>192</v>
@@ -5130,10 +5130,10 @@
         <v>27500</v>
       </c>
       <c r="CA16">
-        <v>25553.02</v>
+        <v>18287.14</v>
       </c>
       <c r="CB16">
-        <v>17957.79</v>
+        <v>14736.37</v>
       </c>
       <c r="CC16" t="s">
         <v>192</v>
@@ -5264,10 +5264,10 @@
         <v>7530</v>
       </c>
       <c r="AQ17">
-        <v>5269.91</v>
+        <v>6774.52</v>
       </c>
       <c r="AR17">
-        <v>3869.87</v>
+        <v>5446.22</v>
       </c>
       <c r="AS17" t="s">
         <v>192</v>
@@ -5276,10 +5276,10 @@
         <v>7530</v>
       </c>
       <c r="AU17">
-        <v>4729.42</v>
+        <v>5724.28</v>
       </c>
       <c r="AV17">
-        <v>3967.79</v>
+        <v>4021.36</v>
       </c>
       <c r="AW17" t="s">
         <v>192</v>
@@ -5288,10 +5288,10 @@
         <v>7530</v>
       </c>
       <c r="AY17">
-        <v>5536.38</v>
+        <v>5586.47</v>
       </c>
       <c r="AZ17">
-        <v>4522.5</v>
+        <v>4524.1</v>
       </c>
       <c r="BA17" t="s">
         <v>192</v>
@@ -5300,10 +5300,10 @@
         <v>7530</v>
       </c>
       <c r="BC17">
-        <v>5374.01</v>
+        <v>6493.39</v>
       </c>
       <c r="BD17">
-        <v>4067.02</v>
+        <v>5437.25</v>
       </c>
       <c r="BE17" t="s">
         <v>341</v>
@@ -5312,10 +5312,10 @@
         <v>56170</v>
       </c>
       <c r="BG17">
-        <v>50134.06</v>
+        <v>46772.28</v>
       </c>
       <c r="BH17">
-        <v>44587.11</v>
+        <v>42566.57</v>
       </c>
       <c r="BI17" t="s">
         <v>344</v>
@@ -5324,10 +5324,10 @@
         <v>2000000</v>
       </c>
       <c r="BK17">
-        <v>1324790.08</v>
+        <v>1409897.35</v>
       </c>
       <c r="BL17">
-        <v>1107405.13</v>
+        <v>1042691.03</v>
       </c>
       <c r="BM17" t="s">
         <v>192</v>
@@ -5336,10 +5336,10 @@
         <v>2000000</v>
       </c>
       <c r="BO17">
-        <v>1575349.82</v>
+        <v>1482373.24</v>
       </c>
       <c r="BP17">
-        <v>1193405.18</v>
+        <v>1166082.43</v>
       </c>
       <c r="BQ17" t="s">
         <v>192</v>
@@ -5348,10 +5348,10 @@
         <v>2000</v>
       </c>
       <c r="BS17">
-        <v>1758.22</v>
+        <v>1378.59</v>
       </c>
       <c r="BT17">
-        <v>1538.43</v>
+        <v>1052.1</v>
       </c>
       <c r="BU17" t="s">
         <v>192</v>
@@ -5360,10 +5360,10 @@
         <v>2000</v>
       </c>
       <c r="BW17">
-        <v>1703.08</v>
+        <v>1580.1</v>
       </c>
       <c r="BX17">
-        <v>1397.49</v>
+        <v>1197.62</v>
       </c>
       <c r="BY17" t="s">
         <v>192</v>
@@ -5372,10 +5372,10 @@
         <v>2000</v>
       </c>
       <c r="CA17">
-        <v>1626.44</v>
+        <v>1450.68</v>
       </c>
       <c r="CB17">
-        <v>1270.49</v>
+        <v>1203.42</v>
       </c>
       <c r="CC17" t="s">
         <v>192</v>
@@ -5500,10 +5500,10 @@
         <v>174720</v>
       </c>
       <c r="AQ18">
-        <v>133398.44</v>
+        <v>128087.09</v>
       </c>
       <c r="AR18">
-        <v>107940.12</v>
+        <v>87475.78</v>
       </c>
       <c r="AS18" t="s">
         <v>192</v>
@@ -5512,10 +5512,10 @@
         <v>174720</v>
       </c>
       <c r="AU18">
-        <v>140643.1</v>
+        <v>152956.22</v>
       </c>
       <c r="AV18">
-        <v>94827.34</v>
+        <v>103257.82</v>
       </c>
       <c r="AW18" t="s">
         <v>192</v>
@@ -5524,10 +5524,10 @@
         <v>174720</v>
       </c>
       <c r="AY18">
-        <v>139259.66</v>
+        <v>165984</v>
       </c>
       <c r="AZ18">
-        <v>87809.50999999999</v>
+        <v>125014.06</v>
       </c>
       <c r="BA18" t="s">
         <v>192</v>
@@ -5536,10 +5536,10 @@
         <v>174720</v>
       </c>
       <c r="BC18">
-        <v>160565.45</v>
+        <v>130005.2</v>
       </c>
       <c r="BD18">
-        <v>112177.78</v>
+        <v>112767.52</v>
       </c>
       <c r="BE18" t="s">
         <v>192</v>
@@ -5548,10 +5548,10 @@
         <v>174720</v>
       </c>
       <c r="BG18">
-        <v>153524.13</v>
+        <v>112901.47</v>
       </c>
       <c r="BH18">
-        <v>123035.83</v>
+        <v>107256.4</v>
       </c>
       <c r="BI18" t="s">
         <v>192</v>
@@ -5560,10 +5560,10 @@
         <v>174720</v>
       </c>
       <c r="BK18">
-        <v>144781.81</v>
+        <v>120511.13</v>
       </c>
       <c r="BL18">
-        <v>92486.63</v>
+        <v>85075.72</v>
       </c>
       <c r="BM18" t="s">
         <v>347</v>
@@ -5572,10 +5572,10 @@
         <v>87360</v>
       </c>
       <c r="BO18">
-        <v>61265.4</v>
+        <v>60737.98</v>
       </c>
       <c r="BP18">
-        <v>57568.11</v>
+        <v>50769.81</v>
       </c>
       <c r="BQ18" t="s">
         <v>192</v>
@@ -5584,10 +5584,10 @@
         <v>9000</v>
       </c>
       <c r="BS18">
-        <v>7789.85</v>
+        <v>7556.86</v>
       </c>
       <c r="BT18">
-        <v>5260.36</v>
+        <v>6492.29</v>
       </c>
       <c r="BU18" t="s">
         <v>192</v>
@@ -5596,10 +5596,10 @@
         <v>9000</v>
       </c>
       <c r="BW18">
-        <v>7153.63</v>
+        <v>7548.02</v>
       </c>
       <c r="BX18">
-        <v>5395.25</v>
+        <v>5567.99</v>
       </c>
       <c r="BY18" t="s">
         <v>192</v>
@@ -5608,10 +5608,10 @@
         <v>9000</v>
       </c>
       <c r="CA18">
-        <v>8525.299999999999</v>
+        <v>6351.15</v>
       </c>
       <c r="CB18">
-        <v>6333.65</v>
+        <v>5630.23</v>
       </c>
       <c r="CC18" t="s">
         <v>192</v>
@@ -5739,10 +5739,10 @@
         <v>14960</v>
       </c>
       <c r="AQ19">
-        <v>9660.34</v>
+        <v>13019.01</v>
       </c>
       <c r="AR19">
-        <v>8379.290000000001</v>
+        <v>9700.1</v>
       </c>
       <c r="AS19" t="s">
         <v>192</v>
@@ -5751,10 +5751,10 @@
         <v>14960</v>
       </c>
       <c r="AU19">
-        <v>12024.64</v>
+        <v>11612.61</v>
       </c>
       <c r="AV19">
-        <v>11236.5</v>
+        <v>11031.98</v>
       </c>
       <c r="AW19" t="s">
         <v>192</v>
@@ -5763,10 +5763,10 @@
         <v>14960</v>
       </c>
       <c r="AY19">
-        <v>9665.549999999999</v>
+        <v>10687.85</v>
       </c>
       <c r="AZ19">
-        <v>5974.27</v>
+        <v>8102.49</v>
       </c>
       <c r="BA19" t="s">
         <v>192</v>
@@ -5775,10 +5775,10 @@
         <v>14960</v>
       </c>
       <c r="BC19">
-        <v>13368.83</v>
+        <v>9585.879999999999</v>
       </c>
       <c r="BD19">
-        <v>12397.66</v>
+        <v>8642</v>
       </c>
       <c r="BE19" t="s">
         <v>342</v>
@@ -5787,10 +5787,10 @@
         <v>14955</v>
       </c>
       <c r="BG19">
-        <v>14176.53</v>
+        <v>13799.69</v>
       </c>
       <c r="BH19">
-        <v>8699.98</v>
+        <v>9610.780000000001</v>
       </c>
       <c r="BI19" t="s">
         <v>345</v>
@@ -5799,10 +5799,10 @@
         <v>450000</v>
       </c>
       <c r="BK19">
-        <v>284099.23</v>
+        <v>328064.54</v>
       </c>
       <c r="BL19">
-        <v>227082.06</v>
+        <v>243021.98</v>
       </c>
       <c r="BM19" t="s">
         <v>192</v>
@@ -5811,10 +5811,10 @@
         <v>500000</v>
       </c>
       <c r="BO19">
-        <v>443233.08</v>
+        <v>433199.43</v>
       </c>
       <c r="BP19">
-        <v>347376.3</v>
+        <v>333618.84</v>
       </c>
       <c r="BQ19" t="s">
         <v>192</v>
@@ -5823,10 +5823,10 @@
         <v>10000</v>
       </c>
       <c r="BS19">
-        <v>8629.99</v>
+        <v>7430.37</v>
       </c>
       <c r="BT19">
-        <v>5614.14</v>
+        <v>6773.92</v>
       </c>
       <c r="BU19" t="s">
         <v>192</v>
@@ -5835,10 +5835,10 @@
         <v>10000</v>
       </c>
       <c r="BW19">
-        <v>8218.93</v>
+        <v>7345.08</v>
       </c>
       <c r="BX19">
-        <v>7525.69</v>
+        <v>6932.24</v>
       </c>
       <c r="BY19" t="s">
         <v>192</v>
@@ -5847,10 +5847,10 @@
         <v>10000</v>
       </c>
       <c r="CA19">
-        <v>6627.52</v>
+        <v>8127.78</v>
       </c>
       <c r="CB19">
-        <v>5909.25</v>
+        <v>6473.25</v>
       </c>
       <c r="CC19" t="s">
         <v>192</v>
@@ -5981,10 +5981,10 @@
         <v>1248650</v>
       </c>
       <c r="AQ20">
-        <v>1046618.34</v>
+        <v>1186217.5</v>
       </c>
       <c r="AR20">
-        <v>737414.5699999999</v>
+        <v>915700.67</v>
       </c>
       <c r="AS20" t="s">
         <v>192</v>
@@ -5993,10 +5993,10 @@
         <v>1248650</v>
       </c>
       <c r="AU20">
-        <v>1167197.43</v>
+        <v>964727.34</v>
       </c>
       <c r="AV20">
-        <v>917627.09</v>
+        <v>842825.38</v>
       </c>
       <c r="AW20" t="s">
         <v>192</v>
@@ -6005,10 +6005,10 @@
         <v>1248650</v>
       </c>
       <c r="AY20">
-        <v>1165505.33</v>
+        <v>1120433.94</v>
       </c>
       <c r="AZ20">
-        <v>962556.45</v>
+        <v>973675.66</v>
       </c>
       <c r="BA20" t="s">
         <v>192</v>
@@ -6017,10 +6017,10 @@
         <v>1248650</v>
       </c>
       <c r="BC20">
-        <v>1101020.21</v>
+        <v>997313.86</v>
       </c>
       <c r="BD20">
-        <v>863792.9300000001</v>
+        <v>761013.22</v>
       </c>
       <c r="BE20" t="s">
         <v>192</v>
@@ -6029,10 +6029,10 @@
         <v>1248650</v>
       </c>
       <c r="BG20">
-        <v>834695.79</v>
+        <v>1078525.28</v>
       </c>
       <c r="BH20">
-        <v>737125.74</v>
+        <v>817919.02</v>
       </c>
       <c r="BI20" t="s">
         <v>192</v>
@@ -6041,10 +6041,10 @@
         <v>1248650</v>
       </c>
       <c r="BK20">
-        <v>925300.34</v>
+        <v>978523.5600000001</v>
       </c>
       <c r="BL20">
-        <v>731825.66</v>
+        <v>796334.99</v>
       </c>
       <c r="BM20" t="s">
         <v>348</v>
@@ -6053,10 +6053,10 @@
         <v>1248650</v>
       </c>
       <c r="BO20">
-        <v>977189.1</v>
+        <v>984377.74</v>
       </c>
       <c r="BP20">
-        <v>652531.79</v>
+        <v>864207.59</v>
       </c>
       <c r="BQ20" t="s">
         <v>351</v>
@@ -6065,10 +6065,10 @@
         <v>1248650</v>
       </c>
       <c r="BS20">
-        <v>1060573.42</v>
+        <v>973359.17</v>
       </c>
       <c r="BT20">
-        <v>637657.65</v>
+        <v>700680.74</v>
       </c>
       <c r="BU20" t="s">
         <v>192</v>
@@ -6077,10 +6077,10 @@
         <v>936490</v>
       </c>
       <c r="BW20">
-        <v>767543.88</v>
+        <v>864520.17</v>
       </c>
       <c r="BX20">
-        <v>476876.07</v>
+        <v>780452.59</v>
       </c>
       <c r="BY20" t="s">
         <v>192</v>
@@ -6089,10 +6089,10 @@
         <v>936490</v>
       </c>
       <c r="CA20">
-        <v>575674.88</v>
+        <v>682116.89</v>
       </c>
       <c r="CB20">
-        <v>523711.36</v>
+        <v>624374.25</v>
       </c>
       <c r="CC20" t="s">
         <v>192</v>
@@ -6223,10 +6223,10 @@
         <v>412081</v>
       </c>
       <c r="AQ21">
-        <v>313499.02</v>
+        <v>307716.68</v>
       </c>
       <c r="AR21">
-        <v>292000.87</v>
+        <v>267162.24</v>
       </c>
       <c r="AS21" t="s">
         <v>192</v>
@@ -6235,10 +6235,10 @@
         <v>412081</v>
       </c>
       <c r="AU21">
-        <v>261387.26</v>
+        <v>293571.88</v>
       </c>
       <c r="AV21">
-        <v>198749.71</v>
+        <v>221372.67</v>
       </c>
       <c r="AW21" t="s">
         <v>192</v>
@@ -6247,10 +6247,10 @@
         <v>412081</v>
       </c>
       <c r="AY21">
-        <v>370648.13</v>
+        <v>294613.13</v>
       </c>
       <c r="AZ21">
-        <v>292605.33</v>
+        <v>209801.45</v>
       </c>
       <c r="BA21" t="s">
         <v>192</v>
@@ -6259,10 +6259,10 @@
         <v>412081</v>
       </c>
       <c r="BC21">
-        <v>328590.12</v>
+        <v>359552.16</v>
       </c>
       <c r="BD21">
-        <v>291417.46</v>
+        <v>287589.46</v>
       </c>
       <c r="BE21" t="s">
         <v>192</v>
@@ -6271,10 +6271,10 @@
         <v>412081</v>
       </c>
       <c r="BG21">
-        <v>366423.41</v>
+        <v>294176.88</v>
       </c>
       <c r="BH21">
-        <v>324857.62</v>
+        <v>225939.66</v>
       </c>
       <c r="BI21" t="s">
         <v>192</v>
@@ -6283,10 +6283,10 @@
         <v>412081</v>
       </c>
       <c r="BK21">
-        <v>281694.43</v>
+        <v>316606.38</v>
       </c>
       <c r="BL21">
-        <v>223899.76</v>
+        <v>259051.19</v>
       </c>
       <c r="BM21" t="s">
         <v>192</v>
@@ -6295,10 +6295,10 @@
         <v>412081</v>
       </c>
       <c r="BO21">
-        <v>340871.15</v>
+        <v>346227.57</v>
       </c>
       <c r="BP21">
-        <v>318296.08</v>
+        <v>301244.12</v>
       </c>
       <c r="BQ21" t="s">
         <v>192</v>
@@ -6307,10 +6307,10 @@
         <v>412081</v>
       </c>
       <c r="BS21">
-        <v>379769.22</v>
+        <v>391476.95</v>
       </c>
       <c r="BT21">
-        <v>337837.41</v>
+        <v>338064.55</v>
       </c>
       <c r="BU21" t="s">
         <v>192</v>
@@ -6319,10 +6319,10 @@
         <v>412081</v>
       </c>
       <c r="BW21">
-        <v>329519.18</v>
+        <v>312691.64</v>
       </c>
       <c r="BX21">
-        <v>258170.06</v>
+        <v>230043.15</v>
       </c>
       <c r="BY21" t="s">
         <v>192</v>
@@ -6331,10 +6331,10 @@
         <v>412081</v>
       </c>
       <c r="CA21">
-        <v>263198.74</v>
+        <v>311073.32</v>
       </c>
       <c r="CB21">
-        <v>210612.78</v>
+        <v>209213.1</v>
       </c>
       <c r="CC21" t="s">
         <v>192</v>
@@ -6465,10 +6465,10 @@
         <v>412081</v>
       </c>
       <c r="AQ22">
-        <v>250202.02</v>
+        <v>275123.41</v>
       </c>
       <c r="AR22">
-        <v>221171.85</v>
+        <v>193480.08</v>
       </c>
       <c r="AS22" t="s">
         <v>192</v>
@@ -6477,10 +6477,10 @@
         <v>412081</v>
       </c>
       <c r="AU22">
-        <v>251140.37</v>
+        <v>296421.32</v>
       </c>
       <c r="AV22">
-        <v>187180.05</v>
+        <v>250476.08</v>
       </c>
       <c r="AW22" t="s">
         <v>192</v>
@@ -6489,10 +6489,10 @@
         <v>412081</v>
       </c>
       <c r="AY22">
-        <v>275205.56</v>
+        <v>269419.57</v>
       </c>
       <c r="AZ22">
-        <v>225478.75</v>
+        <v>213790.35</v>
       </c>
       <c r="BA22" t="s">
         <v>192</v>
@@ -6501,10 +6501,10 @@
         <v>412081</v>
       </c>
       <c r="BC22">
-        <v>253666.88</v>
+        <v>374995.56</v>
       </c>
       <c r="BD22">
-        <v>217538.5</v>
+        <v>294288.33</v>
       </c>
       <c r="BE22" t="s">
         <v>192</v>
@@ -6513,10 +6513,10 @@
         <v>412081</v>
       </c>
       <c r="BG22">
-        <v>373118.69</v>
+        <v>303223.46</v>
       </c>
       <c r="BH22">
-        <v>279060.24</v>
+        <v>219664.97</v>
       </c>
       <c r="BI22" t="s">
         <v>192</v>
@@ -6525,10 +6525,10 @@
         <v>412081</v>
       </c>
       <c r="BK22">
-        <v>302545.07</v>
+        <v>318401.19</v>
       </c>
       <c r="BL22">
-        <v>275509.08</v>
+        <v>229977.4</v>
       </c>
       <c r="BM22" t="s">
         <v>192</v>
@@ -6537,10 +6537,10 @@
         <v>412081</v>
       </c>
       <c r="BO22">
-        <v>376807.41</v>
+        <v>322460.7</v>
       </c>
       <c r="BP22">
-        <v>237264.27</v>
+        <v>306337.67</v>
       </c>
       <c r="BQ22" t="s">
         <v>192</v>
@@ -6549,10 +6549,10 @@
         <v>412081</v>
       </c>
       <c r="BS22">
-        <v>345751.29</v>
+        <v>369252.23</v>
       </c>
       <c r="BT22">
-        <v>218882.6</v>
+        <v>346853.72</v>
       </c>
       <c r="BU22" t="s">
         <v>192</v>
@@ -6561,10 +6561,10 @@
         <v>412081</v>
       </c>
       <c r="BW22">
-        <v>312443.17</v>
+        <v>320380.14</v>
       </c>
       <c r="BX22">
-        <v>249666.58</v>
+        <v>264269.08</v>
       </c>
       <c r="BY22" t="s">
         <v>192</v>
@@ -6573,10 +6573,10 @@
         <v>412081</v>
       </c>
       <c r="CA22">
-        <v>350143.31</v>
+        <v>313409.33</v>
       </c>
       <c r="CB22">
-        <v>251302.46</v>
+        <v>257605.78</v>
       </c>
       <c r="CC22" t="s">
         <v>192</v>
@@ -6707,10 +6707,10 @@
         <v>50000</v>
       </c>
       <c r="AQ23">
-        <v>38955.18</v>
+        <v>32807.04</v>
       </c>
       <c r="AR23">
-        <v>31810.19</v>
+        <v>26158.02</v>
       </c>
       <c r="AS23" t="s">
         <v>192</v>
@@ -6719,10 +6719,10 @@
         <v>50000</v>
       </c>
       <c r="AU23">
-        <v>45914.83</v>
+        <v>41142.74</v>
       </c>
       <c r="AV23">
-        <v>35060.81</v>
+        <v>33293.96</v>
       </c>
       <c r="AW23" t="s">
         <v>192</v>
@@ -6731,10 +6731,10 @@
         <v>50000</v>
       </c>
       <c r="AY23">
-        <v>38843.43</v>
+        <v>31421.41</v>
       </c>
       <c r="AZ23">
-        <v>28855.51</v>
+        <v>25927.23</v>
       </c>
       <c r="BA23" t="s">
         <v>192</v>
@@ -6743,10 +6743,10 @@
         <v>50000</v>
       </c>
       <c r="BC23">
-        <v>39255.18</v>
+        <v>46974.06</v>
       </c>
       <c r="BD23">
-        <v>29009.5</v>
+        <v>35359.18</v>
       </c>
       <c r="BE23" t="s">
         <v>192</v>
@@ -6755,10 +6755,10 @@
         <v>50000</v>
       </c>
       <c r="BG23">
-        <v>46307.09</v>
+        <v>34394.35</v>
       </c>
       <c r="BH23">
-        <v>31174.38</v>
+        <v>26139.62</v>
       </c>
       <c r="BI23" t="s">
         <v>192</v>
@@ -6767,10 +6767,10 @@
         <v>50000</v>
       </c>
       <c r="BK23">
-        <v>35356.52</v>
+        <v>39348.41</v>
       </c>
       <c r="BL23">
-        <v>31990.3</v>
+        <v>30821.94</v>
       </c>
       <c r="BM23" t="s">
         <v>192</v>
@@ -6779,10 +6779,10 @@
         <v>50000</v>
       </c>
       <c r="BO23">
-        <v>30929.2</v>
+        <v>40750.18</v>
       </c>
       <c r="BP23">
-        <v>28963.21</v>
+        <v>35958.66</v>
       </c>
       <c r="BQ23" t="s">
         <v>192</v>
@@ -6791,10 +6791,10 @@
         <v>50000</v>
       </c>
       <c r="BS23">
-        <v>44437.3</v>
+        <v>44768.62</v>
       </c>
       <c r="BT23">
-        <v>40274.01</v>
+        <v>38348.88</v>
       </c>
       <c r="BU23" t="s">
         <v>192</v>
@@ -6803,10 +6803,10 @@
         <v>50000</v>
       </c>
       <c r="BW23">
-        <v>41770.81</v>
+        <v>39806.77</v>
       </c>
       <c r="BX23">
-        <v>25607.22</v>
+        <v>28366.74</v>
       </c>
       <c r="BY23" t="s">
         <v>192</v>
@@ -6815,10 +6815,10 @@
         <v>50000</v>
       </c>
       <c r="CA23">
-        <v>44782.98</v>
+        <v>40345.91</v>
       </c>
       <c r="CB23">
-        <v>36175.55</v>
+        <v>27468.89</v>
       </c>
       <c r="CC23" t="s">
         <v>192</v>
@@ -6949,10 +6949,10 @@
         <v>300000</v>
       </c>
       <c r="AQ24">
-        <v>251875.92</v>
+        <v>195889.6</v>
       </c>
       <c r="AR24">
-        <v>191326.73</v>
+        <v>159667.3</v>
       </c>
       <c r="AS24" t="s">
         <v>192</v>
@@ -6961,10 +6961,10 @@
         <v>300000</v>
       </c>
       <c r="AU24">
-        <v>237801.17</v>
+        <v>243030.24</v>
       </c>
       <c r="AV24">
-        <v>155834.14</v>
+        <v>170584.63</v>
       </c>
       <c r="AW24" t="s">
         <v>192</v>
@@ -6973,10 +6973,10 @@
         <v>300000</v>
       </c>
       <c r="AY24">
-        <v>219039.55</v>
+        <v>221320.7</v>
       </c>
       <c r="AZ24">
-        <v>181261.09</v>
+        <v>172844.72</v>
       </c>
       <c r="BA24" t="s">
         <v>192</v>
@@ -6985,10 +6985,10 @@
         <v>300000</v>
       </c>
       <c r="BC24">
-        <v>260527.41</v>
+        <v>285000</v>
       </c>
       <c r="BD24">
-        <v>180594.09</v>
+        <v>221198.27</v>
       </c>
       <c r="BE24" t="s">
         <v>192</v>
@@ -6997,10 +6997,10 @@
         <v>300000</v>
       </c>
       <c r="BG24">
-        <v>278379.59</v>
+        <v>241910.07</v>
       </c>
       <c r="BH24">
-        <v>221266.53</v>
+        <v>173099.95</v>
       </c>
       <c r="BI24" t="s">
         <v>192</v>
@@ -7009,10 +7009,10 @@
         <v>300000</v>
       </c>
       <c r="BK24">
-        <v>220949.2</v>
+        <v>241858.76</v>
       </c>
       <c r="BL24">
-        <v>177280.37</v>
+        <v>196458.11</v>
       </c>
       <c r="BM24" t="s">
         <v>349</v>
@@ -7021,10 +7021,10 @@
         <v>50000</v>
       </c>
       <c r="BO24">
-        <v>33498.35</v>
+        <v>35838.73</v>
       </c>
       <c r="BP24">
-        <v>26552.3</v>
+        <v>29922.8</v>
       </c>
       <c r="BQ24" t="s">
         <v>192</v>
@@ -7033,10 +7033,10 @@
         <v>50000</v>
       </c>
       <c r="BS24">
-        <v>42039.79</v>
+        <v>44793.94</v>
       </c>
       <c r="BT24">
-        <v>39583</v>
+        <v>38950.76</v>
       </c>
       <c r="BU24" t="s">
         <v>192</v>
@@ -7045,10 +7045,10 @@
         <v>50000</v>
       </c>
       <c r="BW24">
-        <v>38403.52</v>
+        <v>45791.3</v>
       </c>
       <c r="BX24">
-        <v>34026.66</v>
+        <v>38671.31</v>
       </c>
       <c r="BY24" t="s">
         <v>192</v>
@@ -7057,10 +7057,10 @@
         <v>50000</v>
       </c>
       <c r="CA24">
-        <v>36915.23</v>
+        <v>40465.48</v>
       </c>
       <c r="CB24">
-        <v>26352.94</v>
+        <v>32332.87</v>
       </c>
       <c r="CC24" t="s">
         <v>192</v>
@@ -7191,10 +7191,10 @@
         <v>50000</v>
       </c>
       <c r="AQ25">
-        <v>33357.54</v>
+        <v>36915.76</v>
       </c>
       <c r="AR25">
-        <v>30634.12</v>
+        <v>31128.97</v>
       </c>
       <c r="AS25" t="s">
         <v>192</v>
@@ -7203,10 +7203,10 @@
         <v>50000</v>
       </c>
       <c r="AU25">
-        <v>30273.89</v>
+        <v>45291.77</v>
       </c>
       <c r="AV25">
-        <v>28690.09</v>
+        <v>38818.24</v>
       </c>
       <c r="AW25" t="s">
         <v>192</v>
@@ -7215,10 +7215,10 @@
         <v>50000</v>
       </c>
       <c r="AY25">
-        <v>40810.83</v>
+        <v>44735.13</v>
       </c>
       <c r="AZ25">
-        <v>26651.43</v>
+        <v>33708</v>
       </c>
       <c r="BA25" t="s">
         <v>192</v>
@@ -7227,10 +7227,10 @@
         <v>50000</v>
       </c>
       <c r="BC25">
-        <v>45671.84</v>
+        <v>34952.37</v>
       </c>
       <c r="BD25">
-        <v>38408.68</v>
+        <v>28063.17</v>
       </c>
       <c r="BE25" t="s">
         <v>192</v>
@@ -7239,10 +7239,10 @@
         <v>50000</v>
       </c>
       <c r="BG25">
-        <v>32867.97</v>
+        <v>36189.1</v>
       </c>
       <c r="BH25">
-        <v>28188.46</v>
+        <v>28589.17</v>
       </c>
       <c r="BI25" t="s">
         <v>192</v>
@@ -7251,10 +7251,10 @@
         <v>50000</v>
       </c>
       <c r="BK25">
-        <v>35011.6</v>
+        <v>33069.85</v>
       </c>
       <c r="BL25">
-        <v>30921.58</v>
+        <v>25814.99</v>
       </c>
       <c r="BM25" t="s">
         <v>192</v>
@@ -7263,10 +7263,10 @@
         <v>50000</v>
       </c>
       <c r="BO25">
-        <v>31307.42</v>
+        <v>37928.96</v>
       </c>
       <c r="BP25">
-        <v>28024.97</v>
+        <v>31668.27</v>
       </c>
       <c r="BQ25" t="s">
         <v>192</v>
@@ -7275,10 +7275,10 @@
         <v>20000</v>
       </c>
       <c r="BS25">
-        <v>12650.16</v>
+        <v>18016.04</v>
       </c>
       <c r="BT25">
-        <v>10727.68</v>
+        <v>13571.19</v>
       </c>
       <c r="BU25" t="s">
         <v>192</v>
@@ -7287,10 +7287,10 @@
         <v>20000</v>
       </c>
       <c r="BW25">
-        <v>15715.44</v>
+        <v>15734.09</v>
       </c>
       <c r="BX25">
-        <v>9802.51</v>
+        <v>13998.18</v>
       </c>
       <c r="BY25" t="s">
         <v>192</v>
@@ -7299,10 +7299,10 @@
         <v>20000</v>
       </c>
       <c r="CA25">
-        <v>12784.06</v>
+        <v>18231.89</v>
       </c>
       <c r="CB25">
-        <v>10535.69</v>
+        <v>14569.12</v>
       </c>
       <c r="CC25" t="s">
         <v>192</v>
